--- a/database/_legacy-data/players.xlsx
+++ b/database/_legacy-data/players.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="21390" windowHeight="9195" xr2:uid="{97FE6691-1362-4054-BF3C-CF397563C238}"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="21390" windowHeight="9195" xr2:uid="{97FE6691-1362-4054-BF3C-CF397563C238}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
@@ -4662,14 +4662,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737A9FD3-37A7-4FE0-A493-A330F7C34BDB}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N1100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1104" sqref="K1104"/>
+      <selection pane="bottomRight" activeCell="A337" sqref="A337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4728,7 +4727,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>726</v>
       </c>
@@ -4756,7 +4755,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>72</v>
       </c>
@@ -4781,7 +4780,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>490</v>
       </c>
@@ -4809,7 +4808,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>255</v>
       </c>
@@ -4837,7 +4836,7 @@
         <v>42439</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>737</v>
       </c>
@@ -4865,7 +4864,7 @@
         <v>42485</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>404</v>
       </c>
@@ -4893,7 +4892,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>73</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>42923</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>378</v>
       </c>
@@ -4951,7 +4950,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>334</v>
       </c>
@@ -4984,7 +4983,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -5009,7 +5008,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -5034,7 +5033,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>772</v>
       </c>
@@ -5061,7 +5060,7 @@
         <v>43012</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>635</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>42537</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>567</v>
       </c>
@@ -5117,7 +5116,7 @@
         <v>42110</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>44</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>42618</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>56</v>
       </c>
@@ -5167,7 +5166,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>320</v>
       </c>
@@ -5195,7 +5194,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>58</v>
       </c>
@@ -5220,7 +5219,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>516</v>
       </c>
@@ -5248,7 +5247,7 @@
         <v>42395</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>74</v>
       </c>
@@ -5273,7 +5272,7 @@
         <v>43021</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>613</v>
       </c>
@@ -5301,7 +5300,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>256</v>
       </c>
@@ -5329,7 +5328,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>377</v>
       </c>
@@ -5357,7 +5356,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>263</v>
       </c>
@@ -5390,7 +5389,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>436</v>
       </c>
@@ -5418,7 +5417,7 @@
         <v>42212</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>62</v>
       </c>
@@ -5443,7 +5442,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -5468,7 +5467,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>572</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>41703</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>617</v>
       </c>
@@ -5524,7 +5523,7 @@
         <v>42276</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>39</v>
       </c>
@@ -5549,7 +5548,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>482</v>
       </c>
@@ -5577,7 +5576,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>40</v>
       </c>
@@ -5602,7 +5601,7 @@
         <v>42219</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>614</v>
       </c>
@@ -5630,7 +5629,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>67</v>
       </c>
@@ -5655,7 +5654,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>254</v>
       </c>
@@ -5688,7 +5687,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>352</v>
       </c>
@@ -5721,7 +5720,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>515</v>
       </c>
@@ -5749,7 +5748,7 @@
         <v>41827</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>54</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>41659</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>335</v>
       </c>
@@ -5807,7 +5806,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>285</v>
       </c>
@@ -5835,7 +5834,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>333</v>
       </c>
@@ -5872,7 +5871,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>89</v>
       </c>
@@ -5896,7 +5895,7 @@
         <v>43012</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>91</v>
       </c>
@@ -5920,7 +5919,7 @@
         <v>43016</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>619</v>
       </c>
@@ -5948,7 +5947,7 @@
         <v>41844</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>161</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>42052</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>302</v>
       </c>
@@ -6005,7 +6004,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>326</v>
       </c>
@@ -6032,7 +6031,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>135</v>
       </c>
@@ -6056,7 +6055,7 @@
         <v>42255</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>458</v>
       </c>
@@ -6083,7 +6082,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>137</v>
       </c>
@@ -6107,7 +6106,7 @@
         <v>42087</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>500</v>
       </c>
@@ -6134,7 +6133,7 @@
         <v>42289</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>536</v>
       </c>
@@ -6161,7 +6160,7 @@
         <v>42052</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>128</v>
       </c>
@@ -6185,7 +6184,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>139</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>41884</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>140</v>
       </c>
@@ -6233,7 +6232,7 @@
         <v>41683</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>259</v>
       </c>
@@ -6260,7 +6259,7 @@
         <v>41683</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>435</v>
       </c>
@@ -6287,7 +6286,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>633</v>
       </c>
@@ -6314,7 +6313,7 @@
         <v>42530</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>296</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>629</v>
       </c>
@@ -6368,7 +6367,7 @@
         <v>41730</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>692</v>
       </c>
@@ -6395,7 +6394,7 @@
         <v>42833</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>144</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>59</v>
       </c>
@@ -6449,7 +6448,7 @@
         <v>42255</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>628</v>
       </c>
@@ -6476,7 +6475,7 @@
         <v>42420</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>487</v>
       </c>
@@ -6503,7 +6502,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>146</v>
       </c>
@@ -6527,7 +6526,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>147</v>
       </c>
@@ -6551,7 +6550,7 @@
         <v>41840</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>696</v>
       </c>
@@ -6584,7 +6583,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>767</v>
       </c>
@@ -6611,7 +6610,7 @@
         <v>42877</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>759</v>
       </c>
@@ -6638,7 +6637,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>149</v>
       </c>
@@ -6668,7 +6667,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>151</v>
       </c>
@@ -6692,7 +6691,7 @@
         <v>42255</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>150</v>
       </c>
@@ -6716,7 +6715,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>152</v>
       </c>
@@ -6740,7 +6739,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>153</v>
       </c>
@@ -6764,7 +6763,7 @@
         <v>41840</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>154</v>
       </c>
@@ -6788,7 +6787,7 @@
         <v>41840</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>278</v>
       </c>
@@ -6815,7 +6814,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>143</v>
       </c>
@@ -6839,7 +6838,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>385</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>143</v>
       </c>
@@ -6896,7 +6895,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>295</v>
       </c>
@@ -6923,7 +6922,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>303</v>
       </c>
@@ -6953,7 +6952,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>157</v>
       </c>
@@ -6977,7 +6976,7 @@
         <v>42141</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>54</v>
       </c>
@@ -7001,7 +7000,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>743</v>
       </c>
@@ -7028,7 +7027,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>158</v>
       </c>
@@ -7052,7 +7051,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>684</v>
       </c>
@@ -7079,7 +7078,7 @@
         <v>42813</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>351</v>
       </c>
@@ -7112,7 +7111,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>546</v>
       </c>
@@ -7139,7 +7138,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>81</v>
       </c>
@@ -7166,7 +7165,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
         <v>216</v>
@@ -7195,7 +7194,7 @@
       <c r="M92" s="6"/>
       <c r="N92" s="5"/>
     </row>
-    <row r="93" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>194</v>
       </c>
@@ -7222,7 +7221,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>654</v>
       </c>
@@ -7249,7 +7248,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>354</v>
       </c>
@@ -7276,7 +7275,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>370</v>
       </c>
@@ -7303,7 +7302,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>11</v>
       </c>
@@ -7330,7 +7329,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>137</v>
       </c>
@@ -7357,7 +7356,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5" t="s">
         <v>65</v>
@@ -7390,7 +7389,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>620</v>
       </c>
@@ -7417,7 +7416,7 @@
         <v>42316</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>736</v>
       </c>
@@ -7444,7 +7443,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>525</v>
       </c>
@@ -7471,7 +7470,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>197</v>
       </c>
@@ -7495,7 +7494,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>735</v>
       </c>
@@ -7522,7 +7521,7 @@
         <v>42434</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>54</v>
       </c>
@@ -7546,7 +7545,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>472</v>
       </c>
@@ -7573,7 +7572,7 @@
         <v>41899</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>199</v>
       </c>
@@ -7600,7 +7599,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>39</v>
       </c>
@@ -7627,7 +7626,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>205</v>
       </c>
@@ -7651,7 +7650,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>227</v>
       </c>
@@ -7675,7 +7674,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>485</v>
       </c>
@@ -7705,7 +7704,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>54</v>
       </c>
@@ -7729,7 +7728,7 @@
         <v>42467</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>218</v>
       </c>
@@ -7756,7 +7755,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>652</v>
       </c>
@@ -7783,7 +7782,7 @@
         <v>42747</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>465</v>
       </c>
@@ -7819,7 +7818,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>321</v>
       </c>
@@ -7849,7 +7848,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>63</v>
       </c>
@@ -7876,7 +7875,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>691</v>
       </c>
@@ -7903,7 +7902,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>634</v>
       </c>
@@ -7930,7 +7929,7 @@
         <v>42634</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>206</v>
       </c>
@@ -7954,7 +7953,7 @@
         <v>42616</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>38</v>
       </c>
@@ -7981,7 +7980,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>40</v>
       </c>
@@ -8005,7 +8004,7 @@
         <v>42515</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>99</v>
       </c>
@@ -8032,7 +8031,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>157</v>
       </c>
@@ -8059,7 +8058,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>194</v>
       </c>
@@ -8086,7 +8085,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>207</v>
       </c>
@@ -8110,7 +8109,7 @@
         <v>42472</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>153</v>
       </c>
@@ -8137,7 +8136,7 @@
         <v>40828</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>60</v>
       </c>
@@ -8164,7 +8163,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>10</v>
       </c>
@@ -8197,7 +8196,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>192</v>
       </c>
@@ -8230,7 +8229,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>156</v>
       </c>
@@ -8261,7 +8260,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>313</v>
       </c>
@@ -8285,7 +8284,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>124</v>
       </c>
@@ -8312,7 +8311,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>201</v>
       </c>
@@ -8336,7 +8335,7 @@
         <v>42499</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>586</v>
       </c>
@@ -8363,7 +8362,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>755</v>
       </c>
@@ -8390,7 +8389,7 @@
         <v>42806</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>156</v>
       </c>
@@ -8414,7 +8413,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>304</v>
       </c>
@@ -8438,7 +8437,7 @@
         <v>42895</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>139</v>
       </c>
@@ -8462,7 +8461,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>424</v>
       </c>
@@ -8489,7 +8488,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>754</v>
       </c>
@@ -8516,7 +8515,7 @@
         <v>42933</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>123</v>
       </c>
@@ -8543,7 +8542,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>122</v>
       </c>
@@ -8573,7 +8572,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>231</v>
       </c>
@@ -8603,7 +8602,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>295</v>
       </c>
@@ -8627,7 +8626,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="5" t="s">
         <v>43</v>
@@ -8660,7 +8659,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>155</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>296</v>
       </c>
@@ -8711,7 +8710,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>314</v>
       </c>
@@ -8735,7 +8734,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>332</v>
       </c>
@@ -8768,7 +8767,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>486</v>
       </c>
@@ -8795,7 +8794,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>91</v>
       </c>
@@ -8819,7 +8818,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>42</v>
       </c>
@@ -8846,7 +8845,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>518</v>
       </c>
@@ -8873,7 +8872,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>750</v>
       </c>
@@ -8900,7 +8899,7 @@
         <v>42731</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>505</v>
       </c>
@@ -8927,7 +8926,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>74</v>
       </c>
@@ -8951,7 +8950,7 @@
         <v>42998</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>344</v>
       </c>
@@ -8978,7 +8977,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>43</v>
       </c>
@@ -9002,7 +9001,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>120</v>
       </c>
@@ -9029,7 +9028,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>317</v>
       </c>
@@ -9053,7 +9052,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>307</v>
       </c>
@@ -9077,7 +9076,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>300</v>
       </c>
@@ -9101,7 +9100,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="B164" s="5" t="s">
         <v>74</v>
@@ -9134,7 +9133,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>318</v>
       </c>
@@ -9158,7 +9157,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>502</v>
       </c>
@@ -9185,7 +9184,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>128</v>
       </c>
@@ -9209,7 +9208,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>203</v>
       </c>
@@ -9236,7 +9235,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>319</v>
       </c>
@@ -9260,7 +9259,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>302</v>
       </c>
@@ -9284,7 +9283,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>776</v>
       </c>
@@ -9311,7 +9310,7 @@
         <v>43034</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>43</v>
       </c>
@@ -9338,7 +9337,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>501</v>
       </c>
@@ -9365,7 +9364,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>640</v>
       </c>
@@ -9400,7 +9399,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>155</v>
       </c>
@@ -9424,7 +9423,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>504</v>
       </c>
@@ -9451,7 +9450,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>167</v>
       </c>
@@ -9478,7 +9477,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>24</v>
       </c>
@@ -9502,7 +9501,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>299</v>
       </c>
@@ -9526,7 +9525,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>320</v>
       </c>
@@ -9556,7 +9555,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>391</v>
       </c>
@@ -9583,7 +9582,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>189</v>
       </c>
@@ -9610,7 +9609,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>227</v>
       </c>
@@ -9634,7 +9633,7 @@
         <v>42926</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>315</v>
       </c>
@@ -9658,7 +9657,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>644</v>
       </c>
@@ -9685,7 +9684,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>73</v>
       </c>
@@ -9709,7 +9708,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>440</v>
       </c>
@@ -9736,7 +9735,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>121</v>
       </c>
@@ -9763,7 +9762,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>503</v>
       </c>
@@ -9790,7 +9789,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>709</v>
       </c>
@@ -9817,7 +9816,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>321</v>
       </c>
@@ -9841,7 +9840,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>322</v>
       </c>
@@ -9865,7 +9864,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>74</v>
       </c>
@@ -9889,7 +9888,7 @@
         <v>42731</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>573</v>
       </c>
@@ -9916,7 +9915,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>171</v>
       </c>
@@ -9943,7 +9942,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>719</v>
       </c>
@@ -9970,7 +9969,7 @@
         <v>42754</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>566</v>
       </c>
@@ -9997,7 +9996,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>585</v>
       </c>
@@ -10024,7 +10023,7 @@
         <v>42217</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>643</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>42411</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>24</v>
       </c>
@@ -10075,7 +10074,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>576</v>
       </c>
@@ -10102,7 +10101,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>748</v>
       </c>
@@ -10129,7 +10128,7 @@
         <v>42930</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>119</v>
       </c>
@@ -10156,7 +10155,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>155</v>
       </c>
@@ -10180,7 +10179,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>471</v>
       </c>
@@ -10207,7 +10206,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>459</v>
       </c>
@@ -10234,7 +10233,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>375</v>
       </c>
@@ -10258,7 +10257,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>196</v>
       </c>
@@ -10282,7 +10281,7 @@
         <v>42240</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>98</v>
       </c>
@@ -10315,7 +10314,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>65</v>
       </c>
@@ -10342,7 +10341,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>151</v>
       </c>
@@ -10369,7 +10368,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>158</v>
       </c>
@@ -10393,7 +10392,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>381</v>
       </c>
@@ -10420,7 +10419,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>388</v>
       </c>
@@ -10444,7 +10443,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>196</v>
       </c>
@@ -10468,7 +10467,7 @@
         <v>42501</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>200</v>
       </c>
@@ -10495,7 +10494,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>44</v>
       </c>
@@ -10519,7 +10518,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>158</v>
       </c>
@@ -10543,7 +10542,7 @@
         <v>42133</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>374</v>
       </c>
@@ -10567,7 +10566,7 @@
         <v>42446</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>97</v>
       </c>
@@ -10603,7 +10602,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>379</v>
       </c>
@@ -10627,7 +10626,7 @@
         <v>41932</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>9</v>
       </c>
@@ -10654,7 +10653,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>166</v>
       </c>
@@ -10681,7 +10680,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>368</v>
       </c>
@@ -10705,7 +10704,7 @@
         <v>42497</v>
       </c>
     </row>
-    <row r="225" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
         <v>8</v>
       </c>
@@ -10744,7 +10743,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="226" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>293</v>
       </c>
@@ -10771,7 +10770,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="227" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>304</v>
       </c>
@@ -10795,7 +10794,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="228" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>381</v>
       </c>
@@ -10819,7 +10818,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="229" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>6</v>
       </c>
@@ -10846,7 +10845,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="230" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>200</v>
       </c>
@@ -10870,7 +10869,7 @@
         <v>42851</v>
       </c>
     </row>
-    <row r="231" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>60</v>
       </c>
@@ -10894,7 +10893,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="232" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>228</v>
       </c>
@@ -10921,7 +10920,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="233" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>196</v>
       </c>
@@ -10948,7 +10947,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="234" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>7</v>
       </c>
@@ -10975,7 +10974,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="235" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>196</v>
       </c>
@@ -10999,7 +10998,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="236" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>71</v>
       </c>
@@ -11023,7 +11022,7 @@
         <v>42240</v>
       </c>
     </row>
-    <row r="237" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>380</v>
       </c>
@@ -11050,7 +11049,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="238" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>141</v>
       </c>
@@ -11074,7 +11073,7 @@
         <v>42501</v>
       </c>
     </row>
-    <row r="239" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>313</v>
       </c>
@@ -11098,7 +11097,7 @@
         <v>42726</v>
       </c>
     </row>
-    <row r="240" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>60</v>
       </c>
@@ -11125,7 +11124,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="241" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>201</v>
       </c>
@@ -11152,7 +11151,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="242" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
         <v>165</v>
       </c>
@@ -11187,7 +11186,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="243" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>383</v>
       </c>
@@ -11211,7 +11210,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="244" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>369</v>
       </c>
@@ -11235,7 +11234,7 @@
         <v>42655</v>
       </c>
     </row>
-    <row r="245" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>384</v>
       </c>
@@ -11259,7 +11258,7 @@
         <v>42283</v>
       </c>
     </row>
-    <row r="246" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
         <v>386</v>
       </c>
@@ -11294,7 +11293,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="247" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
         <v>107</v>
       </c>
@@ -11329,7 +11328,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="248" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>229</v>
       </c>
@@ -11356,7 +11355,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="249" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>385</v>
       </c>
@@ -11383,7 +11382,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="250" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>89</v>
       </c>
@@ -11410,7 +11409,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="251" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>386</v>
       </c>
@@ -11434,7 +11433,7 @@
         <v>42289</v>
       </c>
     </row>
-    <row r="252" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
         <v>379</v>
       </c>
@@ -11469,7 +11468,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="253" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
         <v>445</v>
       </c>
@@ -11504,7 +11503,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="254" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>433</v>
       </c>
@@ -11528,7 +11527,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="255" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>404</v>
       </c>
@@ -11552,7 +11551,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="256" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>431</v>
       </c>
@@ -11576,7 +11575,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>447</v>
       </c>
@@ -11600,7 +11599,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>421</v>
       </c>
@@ -11624,7 +11623,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>707</v>
       </c>
@@ -11651,7 +11650,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>139</v>
       </c>
@@ -11675,7 +11674,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>706</v>
       </c>
@@ -11702,7 +11701,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>746</v>
       </c>
@@ -11729,7 +11728,7 @@
         <v>42926</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>757</v>
       </c>
@@ -11756,7 +11755,7 @@
         <v>42975</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>61</v>
       </c>
@@ -11780,7 +11779,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>408</v>
       </c>
@@ -11804,7 +11803,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>705</v>
       </c>
@@ -11831,7 +11830,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>708</v>
       </c>
@@ -11858,7 +11857,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>440</v>
       </c>
@@ -11882,7 +11881,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>669</v>
       </c>
@@ -11909,7 +11908,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>670</v>
       </c>
@@ -11936,7 +11935,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>299</v>
       </c>
@@ -11960,7 +11959,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>410</v>
       </c>
@@ -11984,7 +11983,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>675</v>
       </c>
@@ -12011,7 +12010,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>156</v>
       </c>
@@ -12035,7 +12034,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>747</v>
       </c>
@@ -12062,7 +12061,7 @@
         <v>42926</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>231</v>
       </c>
@@ -12086,7 +12085,7 @@
         <v>42747</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>418</v>
       </c>
@@ -12110,7 +12109,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>756</v>
       </c>
@@ -12137,7 +12136,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>745</v>
       </c>
@@ -12164,7 +12163,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>676</v>
       </c>
@@ -12191,7 +12190,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>715</v>
       </c>
@@ -12218,7 +12217,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>423</v>
       </c>
@@ -12242,7 +12241,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>744</v>
       </c>
@@ -12269,7 +12268,7 @@
         <v>42747</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>231</v>
       </c>
@@ -12296,7 +12295,7 @@
         <v>42845</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>142</v>
       </c>
@@ -12320,7 +12319,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>24</v>
       </c>
@@ -12344,7 +12343,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>141</v>
       </c>
@@ -12368,7 +12367,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>496</v>
       </c>
@@ -12395,7 +12394,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>296</v>
       </c>
@@ -12419,7 +12418,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>143</v>
       </c>
@@ -12443,7 +12442,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>449</v>
       </c>
@@ -12467,7 +12466,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>155</v>
       </c>
@@ -12491,7 +12490,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>89</v>
       </c>
@@ -12515,7 +12514,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>568</v>
       </c>
@@ -12542,7 +12541,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>24</v>
       </c>
@@ -12566,7 +12565,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>497</v>
       </c>
@@ -12593,7 +12592,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>60</v>
       </c>
@@ -12617,7 +12616,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>63</v>
       </c>
@@ -12641,7 +12640,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>89</v>
       </c>
@@ -12665,7 +12664,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>499</v>
       </c>
@@ -12692,7 +12691,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>452</v>
       </c>
@@ -12716,7 +12715,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>570</v>
       </c>
@@ -12743,7 +12742,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>307</v>
       </c>
@@ -12767,7 +12766,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>87</v>
       </c>
@@ -12791,7 +12790,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>636</v>
       </c>
@@ -12818,7 +12817,7 @@
         <v>42530</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>498</v>
       </c>
@@ -12845,7 +12844,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
         <v>453</v>
       </c>
@@ -12869,7 +12868,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>457</v>
       </c>
@@ -12893,7 +12892,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>200</v>
       </c>
@@ -12917,7 +12916,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>375</v>
       </c>
@@ -12941,7 +12940,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>374</v>
       </c>
@@ -12965,7 +12964,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>156</v>
       </c>
@@ -12989,7 +12988,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>569</v>
       </c>
@@ -13016,7 +13015,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>63</v>
       </c>
@@ -13040,7 +13039,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>720</v>
       </c>
@@ -13067,7 +13066,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>520</v>
       </c>
@@ -13094,7 +13093,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>642</v>
       </c>
@@ -13121,7 +13120,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>24</v>
       </c>
@@ -13145,7 +13144,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>651</v>
       </c>
@@ -13172,7 +13171,7 @@
         <v>42394</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>693</v>
       </c>
@@ -13199,7 +13198,7 @@
         <v>42840</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>700</v>
       </c>
@@ -13226,7 +13225,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>771</v>
       </c>
@@ -13253,7 +13252,7 @@
         <v>42991</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>91</v>
       </c>
@@ -13277,7 +13276,7 @@
         <v>42799</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>766</v>
       </c>
@@ -13304,7 +13303,7 @@
         <v>42814</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>194</v>
       </c>
@@ -13328,7 +13327,7 @@
         <v>42921</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>135</v>
       </c>
@@ -13355,7 +13354,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>476</v>
       </c>
@@ -13388,7 +13387,7 @@
         <v>41910</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>701</v>
       </c>
@@ -13415,7 +13414,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>533</v>
       </c>
@@ -13442,7 +13441,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>492</v>
       </c>
@@ -13475,7 +13474,7 @@
         <v>41680</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>532</v>
       </c>
@@ -13502,7 +13501,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>52</v>
       </c>
@@ -13535,7 +13534,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>624</v>
       </c>
@@ -13562,7 +13561,7 @@
         <v>42424</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>703</v>
       </c>
@@ -13589,7 +13588,7 @@
         <v>42433</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>125</v>
       </c>
@@ -13616,7 +13615,10 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>779</v>
+      </c>
       <c r="B336" t="s">
         <v>304</v>
       </c>
@@ -13634,13 +13636,13 @@
       </c>
       <c r="K336">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>779</v>
       </c>
       <c r="L336" s="1">
         <v>42614</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>537</v>
       </c>
@@ -13664,7 +13666,7 @@
         <v>42429</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>368</v>
       </c>
@@ -13688,7 +13690,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>623</v>
       </c>
@@ -13715,7 +13717,7 @@
         <v>42061</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>353</v>
       </c>
@@ -13742,7 +13744,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>51</v>
       </c>
@@ -13769,7 +13771,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
         <v>534</v>
       </c>
@@ -13793,7 +13795,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
         <v>65</v>
       </c>
@@ -13817,7 +13819,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>193</v>
       </c>
@@ -13847,7 +13849,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>412</v>
       </c>
@@ -13880,7 +13882,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="346" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>528</v>
       </c>
@@ -13907,7 +13909,7 @@
         <v>42410</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>70</v>
       </c>
@@ -13934,7 +13936,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="348" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>575</v>
       </c>
@@ -13961,7 +13963,7 @@
         <v>42304</v>
       </c>
     </row>
-    <row r="349" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>58</v>
       </c>
@@ -13988,7 +13990,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>404</v>
       </c>
@@ -14012,7 +14014,7 @@
         <v>41722</v>
       </c>
     </row>
-    <row r="351" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>702</v>
       </c>
@@ -14039,7 +14041,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="352" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>144</v>
       </c>
@@ -14066,7 +14068,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>527</v>
       </c>
@@ -14093,7 +14095,7 @@
         <v>42415</v>
       </c>
     </row>
-    <row r="354" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>200</v>
       </c>
@@ -14117,7 +14119,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>528</v>
       </c>
@@ -14144,7 +14146,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>57</v>
       </c>
@@ -14171,7 +14173,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
         <v>379</v>
       </c>
@@ -14195,7 +14197,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="358" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>308</v>
       </c>
@@ -14222,7 +14224,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>61</v>
       </c>
@@ -14246,7 +14248,7 @@
         <v>41934</v>
       </c>
     </row>
-    <row r="360" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>180</v>
       </c>
@@ -14273,7 +14275,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="361" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>530</v>
       </c>
@@ -14297,7 +14299,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>307</v>
       </c>
@@ -14324,7 +14326,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="363" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>87</v>
       </c>
@@ -14351,7 +14353,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="364" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>252</v>
       </c>
@@ -14378,7 +14380,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>674</v>
       </c>
@@ -14405,7 +14407,7 @@
         <v>42774</v>
       </c>
     </row>
-    <row r="366" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>72</v>
       </c>
@@ -14432,7 +14434,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="367" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>664</v>
       </c>
@@ -14459,7 +14461,7 @@
         <v>41746</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>181</v>
       </c>
@@ -14486,7 +14488,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="369" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
         <v>302</v>
       </c>
@@ -14510,7 +14512,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="370" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" s="5">
         <v>71</v>
       </c>
@@ -14543,7 +14545,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="371" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
         <v>209</v>
       </c>
@@ -14576,7 +14578,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="372" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
         <v>210</v>
       </c>
@@ -14611,7 +14613,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="373" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
         <v>592</v>
       </c>
@@ -14635,7 +14637,7 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="374" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
         <v>196</v>
       </c>
@@ -14659,7 +14661,7 @@
         <v>36011</v>
       </c>
     </row>
-    <row r="375" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
         <v>40</v>
       </c>
@@ -14683,7 +14685,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="376" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
         <v>87</v>
       </c>
@@ -14707,7 +14709,7 @@
         <v>42396</v>
       </c>
     </row>
-    <row r="377" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>621</v>
       </c>
@@ -14734,7 +14736,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="378" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
         <v>61</v>
       </c>
@@ -14758,7 +14760,7 @@
         <v>42975</v>
       </c>
     </row>
-    <row r="379" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
         <v>601</v>
       </c>
@@ -14782,7 +14784,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="380" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
         <v>583</v>
       </c>
@@ -14806,7 +14808,7 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="381" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
         <v>304</v>
       </c>
@@ -14830,7 +14832,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="382" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
         <v>590</v>
       </c>
@@ -14854,7 +14856,7 @@
         <v>42472</v>
       </c>
     </row>
-    <row r="383" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
         <v>65</v>
       </c>
@@ -14881,7 +14883,7 @@
         <v>42519</v>
       </c>
     </row>
-    <row r="384" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>741</v>
       </c>
@@ -14908,7 +14910,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="385" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>231</v>
       </c>
@@ -14932,7 +14934,7 @@
         <v>42797</v>
       </c>
     </row>
-    <row r="386" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
         <v>199</v>
       </c>
@@ -14956,7 +14958,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="387" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
         <v>582</v>
       </c>
@@ -14980,7 +14982,7 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="388" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>758</v>
       </c>
@@ -15007,7 +15009,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="389" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
         <v>608</v>
       </c>
@@ -15031,7 +15033,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="390" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
         <v>584</v>
       </c>
@@ -15055,7 +15057,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="391" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
         <v>580</v>
       </c>
@@ -15079,7 +15081,7 @@
         <v>42388</v>
       </c>
     </row>
-    <row r="392" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
         <v>64</v>
       </c>
@@ -15103,7 +15105,7 @@
         <v>42797</v>
       </c>
     </row>
-    <row r="393" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
         <v>577</v>
       </c>
@@ -15127,7 +15129,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="394" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>563</v>
       </c>
@@ -15154,7 +15156,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="395" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
         <v>431</v>
       </c>
@@ -15178,7 +15180,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="396" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
         <v>293</v>
       </c>
@@ -15202,7 +15204,7 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="397" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
         <v>53</v>
       </c>
@@ -15226,7 +15228,7 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="398" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
         <v>606</v>
       </c>
@@ -15250,7 +15252,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="399" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
         <v>559</v>
       </c>
@@ -15274,7 +15276,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="400" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
         <v>54</v>
       </c>
@@ -15298,7 +15300,7 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="401" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>770</v>
       </c>
@@ -15325,7 +15327,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="402" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
         <v>612</v>
       </c>
@@ -15349,7 +15351,7 @@
         <v>42797</v>
       </c>
     </row>
-    <row r="403" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
         <v>579</v>
       </c>
@@ -15373,7 +15375,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="404" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
         <v>585</v>
       </c>
@@ -15397,7 +15399,7 @@
         <v>42975</v>
       </c>
     </row>
-    <row r="405" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>495</v>
       </c>
@@ -15424,7 +15426,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="406" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>564</v>
       </c>
@@ -15451,7 +15453,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="407" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
         <v>60</v>
       </c>
@@ -15475,7 +15477,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="408" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>649</v>
       </c>
@@ -15502,7 +15504,7 @@
         <v>42793</v>
       </c>
     </row>
-    <row r="409" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
         <v>197</v>
       </c>
@@ -15526,7 +15528,7 @@
         <v>42615</v>
       </c>
     </row>
-    <row r="410" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
         <v>299</v>
       </c>
@@ -15550,7 +15552,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="411" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
         <v>567</v>
       </c>
@@ -15577,7 +15579,7 @@
         <v>42519</v>
       </c>
     </row>
-    <row r="412" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
         <v>143</v>
       </c>
@@ -15601,7 +15603,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="413" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
         <v>40</v>
       </c>
@@ -15625,7 +15627,7 @@
         <v>42891</v>
       </c>
     </row>
-    <row r="414" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>641</v>
       </c>
@@ -15655,7 +15657,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="415" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
         <v>194</v>
       </c>
@@ -15679,7 +15681,7 @@
         <v>42578</v>
       </c>
     </row>
-    <row r="416" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
         <v>581</v>
       </c>
@@ -15706,7 +15708,7 @@
         <v>42519</v>
       </c>
     </row>
-    <row r="417" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>653</v>
       </c>
@@ -15733,7 +15735,7 @@
         <v>42797</v>
       </c>
     </row>
-    <row r="418" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
         <v>139</v>
       </c>
@@ -15757,7 +15759,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="419" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>574</v>
       </c>
@@ -15784,7 +15786,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="420" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>672</v>
       </c>
@@ -15811,7 +15813,7 @@
         <v>42616</v>
       </c>
     </row>
-    <row r="421" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
         <v>193</v>
       </c>
@@ -15835,7 +15837,7 @@
         <v>42388</v>
       </c>
     </row>
-    <row r="422" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>526</v>
       </c>
@@ -15865,7 +15867,7 @@
         <v>42519</v>
       </c>
     </row>
-    <row r="423" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
         <v>141</v>
       </c>
@@ -15889,7 +15891,7 @@
         <v>42434</v>
       </c>
     </row>
-    <row r="424" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>622</v>
       </c>
@@ -15916,7 +15918,7 @@
         <v>42443</v>
       </c>
     </row>
-    <row r="425" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>494</v>
       </c>
@@ -15943,7 +15945,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="426" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
         <v>525</v>
       </c>
@@ -15967,7 +15969,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="427" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
         <v>60</v>
       </c>
@@ -15991,7 +15993,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="428" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
         <v>577</v>
       </c>
@@ -16015,7 +16017,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="429" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
         <v>84</v>
       </c>
@@ -16039,7 +16041,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="430" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
         <v>620</v>
       </c>
@@ -16063,7 +16065,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="431" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
         <v>622</v>
       </c>
@@ -16087,7 +16089,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="432" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>548</v>
       </c>
@@ -16114,7 +16116,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="433" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
         <v>302</v>
       </c>
@@ -16138,7 +16140,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="434" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>710</v>
       </c>
@@ -16165,7 +16167,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="435" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
         <v>40</v>
       </c>
@@ -16189,7 +16191,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="436" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
         <v>162</v>
       </c>
@@ -16213,7 +16215,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="437" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
         <v>65</v>
       </c>
@@ -16237,7 +16239,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="438" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
         <v>71</v>
       </c>
@@ -16261,7 +16263,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="439" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
         <v>199</v>
       </c>
@@ -16285,7 +16287,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="440" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
         <v>320</v>
       </c>
@@ -16309,7 +16311,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="441" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
         <v>197</v>
       </c>
@@ -16333,7 +16335,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="442" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
         <v>320</v>
       </c>
@@ -16357,7 +16359,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="443" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
         <v>642</v>
       </c>
@@ -16381,7 +16383,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="444" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
         <v>644</v>
       </c>
@@ -16405,7 +16407,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="445" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
         <v>306</v>
       </c>
@@ -16429,7 +16431,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="446" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
         <v>74</v>
       </c>
@@ -16453,7 +16455,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="447" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B447" t="s">
         <v>649</v>
       </c>
@@ -16477,7 +16479,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="448" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
         <v>631</v>
       </c>
@@ -16501,7 +16503,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="449" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
         <v>315</v>
       </c>
@@ -16525,7 +16527,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="450" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B450" t="s">
         <v>633</v>
       </c>
@@ -16549,7 +16551,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="451" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B451" t="s">
         <v>145</v>
       </c>
@@ -16573,7 +16575,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="452" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B452" t="s">
         <v>636</v>
       </c>
@@ -16597,7 +16599,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="453" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
         <v>604</v>
       </c>
@@ -16621,7 +16623,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="454" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B454" t="s">
         <v>162</v>
       </c>
@@ -16645,7 +16647,7 @@
         <v>41744</v>
       </c>
     </row>
-    <row r="455" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B455" t="s">
         <v>410</v>
       </c>
@@ -16669,7 +16671,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="456" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>185</v>
       </c>
@@ -16696,7 +16698,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="457" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>233</v>
       </c>
@@ -16723,7 +16725,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="458" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B458" t="s">
         <v>137</v>
       </c>
@@ -16747,7 +16749,7 @@
         <v>42865</v>
       </c>
     </row>
-    <row r="459" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B459" t="s">
         <v>61</v>
       </c>
@@ -16771,7 +16773,7 @@
         <v>42759</v>
       </c>
     </row>
-    <row r="460" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
         <v>302</v>
       </c>
@@ -16795,7 +16797,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="461" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>481</v>
       </c>
@@ -16822,7 +16824,7 @@
         <v>42038</v>
       </c>
     </row>
-    <row r="462" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B462" t="s">
         <v>132</v>
       </c>
@@ -16846,7 +16848,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="463" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>187</v>
       </c>
@@ -16873,7 +16875,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="464" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B464" t="s">
         <v>374</v>
       </c>
@@ -16897,7 +16899,7 @@
         <v>41898</v>
       </c>
     </row>
-    <row r="465" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B465" t="s">
         <v>140</v>
       </c>
@@ -16921,7 +16923,7 @@
         <v>42464</v>
       </c>
     </row>
-    <row r="466" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>188</v>
       </c>
@@ -16954,7 +16956,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="467" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>340</v>
       </c>
@@ -16981,7 +16983,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="468" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>265</v>
       </c>
@@ -17008,7 +17010,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="469" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
         <v>689</v>
       </c>
@@ -17032,7 +17034,7 @@
         <v>42270</v>
       </c>
     </row>
-    <row r="470" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
         <v>690</v>
       </c>
@@ -17062,7 +17064,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="471" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>547</v>
       </c>
@@ -17089,7 +17091,7 @@
         <v>42297</v>
       </c>
     </row>
-    <row r="472" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>76</v>
       </c>
@@ -17116,7 +17118,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="473" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
         <v>293</v>
       </c>
@@ -17140,7 +17142,7 @@
         <v>41845</v>
       </c>
     </row>
-    <row r="474" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B474" t="s">
         <v>691</v>
       </c>
@@ -17164,7 +17166,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="475" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>232</v>
       </c>
@@ -17191,7 +17193,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="476" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B476" t="s">
         <v>695</v>
       </c>
@@ -17215,7 +17217,7 @@
         <v>42872</v>
       </c>
     </row>
-    <row r="477" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B477" t="s">
         <v>692</v>
       </c>
@@ -17239,7 +17241,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="478" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B478" t="s">
         <v>143</v>
       </c>
@@ -17263,7 +17265,7 @@
         <v>42629</v>
       </c>
     </row>
-    <row r="479" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B479" t="s">
         <v>145</v>
       </c>
@@ -17287,7 +17289,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="480" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>79</v>
       </c>
@@ -17314,7 +17316,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="481" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B481" t="s">
         <v>194</v>
       </c>
@@ -17338,7 +17340,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="482" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>524</v>
       </c>
@@ -17365,7 +17367,7 @@
         <v>42247</v>
       </c>
     </row>
-    <row r="483" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B483" t="s">
         <v>145</v>
       </c>
@@ -17389,7 +17391,7 @@
         <v>42627</v>
       </c>
     </row>
-    <row r="484" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B484" t="s">
         <v>193</v>
       </c>
@@ -17413,7 +17415,7 @@
         <v>42396</v>
       </c>
     </row>
-    <row r="485" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>618</v>
       </c>
@@ -17440,7 +17442,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="486" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B486" t="s">
         <v>141</v>
       </c>
@@ -17464,7 +17466,7 @@
         <v>42033</v>
       </c>
     </row>
-    <row r="487" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B487" t="s">
         <v>70</v>
       </c>
@@ -17488,7 +17490,7 @@
         <v>42167</v>
       </c>
     </row>
-    <row r="488" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>132</v>
       </c>
@@ -17521,7 +17523,7 @@
         <v>42244</v>
       </c>
     </row>
-    <row r="489" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>425</v>
       </c>
@@ -17554,7 +17556,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="490" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B490" t="s">
         <v>80</v>
       </c>
@@ -17578,7 +17580,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="491" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>77</v>
       </c>
@@ -17605,7 +17607,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="492" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B492" t="s">
         <v>82</v>
       </c>
@@ -17629,7 +17631,7 @@
         <v>42759</v>
       </c>
     </row>
-    <row r="493" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>78</v>
       </c>
@@ -17656,7 +17658,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="494" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>186</v>
       </c>
@@ -17683,7 +17685,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="495" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>74</v>
       </c>
@@ -17710,7 +17712,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="496" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>264</v>
       </c>
@@ -17737,7 +17739,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="497" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>105</v>
       </c>
@@ -17764,7 +17766,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="498" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B498" t="s">
         <v>397</v>
       </c>
@@ -17788,7 +17790,7 @@
         <v>42771</v>
       </c>
     </row>
-    <row r="499" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B499" t="s">
         <v>687</v>
       </c>
@@ -17812,7 +17814,7 @@
         <v>42872</v>
       </c>
     </row>
-    <row r="500" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>73</v>
       </c>
@@ -17839,7 +17841,7 @@
         <v>42417</v>
       </c>
     </row>
-    <row r="501" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>108</v>
       </c>
@@ -17866,7 +17868,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="502" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>179</v>
       </c>
@@ -17899,7 +17901,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="503" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B503" t="s">
         <v>793</v>
       </c>
@@ -17923,7 +17925,7 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="504" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>667</v>
       </c>
@@ -17950,7 +17952,7 @@
         <v>42689</v>
       </c>
     </row>
-    <row r="505" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>387</v>
       </c>
@@ -17980,7 +17982,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="506" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>357</v>
       </c>
@@ -18010,7 +18012,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="507" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>731</v>
       </c>
@@ -18037,7 +18039,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="508" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>630</v>
       </c>
@@ -18067,7 +18069,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="509" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>713</v>
       </c>
@@ -18094,7 +18096,7 @@
         <v>42838</v>
       </c>
     </row>
-    <row r="510" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B510" t="s">
         <v>78</v>
       </c>
@@ -18121,7 +18123,7 @@
         <v>42611</v>
       </c>
     </row>
-    <row r="511" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B511" t="s">
         <v>299</v>
       </c>
@@ -18148,7 +18150,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="512" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>420</v>
       </c>
@@ -18175,7 +18177,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="513" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B513" t="s">
         <v>133</v>
       </c>
@@ -18202,7 +18204,7 @@
         <v>42678</v>
       </c>
     </row>
-    <row r="514" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B514" t="s">
         <v>784</v>
       </c>
@@ -18229,7 +18231,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="515" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B515" t="s">
         <v>785</v>
       </c>
@@ -18256,7 +18258,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="516" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B516" t="s">
         <v>738</v>
       </c>
@@ -18283,7 +18285,7 @@
         <v>42619</v>
       </c>
     </row>
-    <row r="517" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>582</v>
       </c>
@@ -18310,7 +18312,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="518" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B518" t="s">
         <v>84</v>
       </c>
@@ -18334,7 +18336,7 @@
         <v>42823</v>
       </c>
     </row>
-    <row r="519" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>558</v>
       </c>
@@ -18361,7 +18363,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="520" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>761</v>
       </c>
@@ -18388,7 +18390,7 @@
         <v>42815</v>
       </c>
     </row>
-    <row r="521" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B521" t="s">
         <v>80</v>
       </c>
@@ -18412,7 +18414,7 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="522" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>438</v>
       </c>
@@ -18439,7 +18441,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="523" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>161</v>
       </c>
@@ -18466,7 +18468,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="524" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B524" t="s">
         <v>196</v>
       </c>
@@ -18490,7 +18492,7 @@
         <v>42784</v>
       </c>
     </row>
-    <row r="525" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>212</v>
       </c>
@@ -18520,7 +18522,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="526" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B526" t="s">
         <v>740</v>
       </c>
@@ -18544,7 +18546,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="527" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>765</v>
       </c>
@@ -18571,7 +18573,7 @@
         <v>42838</v>
       </c>
     </row>
-    <row r="528" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>666</v>
       </c>
@@ -18598,7 +18600,7 @@
         <v>42607</v>
       </c>
     </row>
-    <row r="529" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B529" t="s">
         <v>162</v>
       </c>
@@ -18625,7 +18627,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="530" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>583</v>
       </c>
@@ -18655,7 +18657,7 @@
         <v>42619</v>
       </c>
     </row>
-    <row r="531" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>698</v>
       </c>
@@ -18682,7 +18684,7 @@
         <v>42815</v>
       </c>
     </row>
-    <row r="532" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B532" t="s">
         <v>753</v>
       </c>
@@ -18706,7 +18708,7 @@
         <v>43034</v>
       </c>
     </row>
-    <row r="533" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>519</v>
       </c>
@@ -18733,7 +18735,7 @@
         <v>41797</v>
       </c>
     </row>
-    <row r="534" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B534" t="s">
         <v>750</v>
       </c>
@@ -18760,7 +18762,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="535" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A535" s="5">
         <v>109</v>
       </c>
@@ -18797,7 +18799,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="536" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>4</v>
       </c>
@@ -18824,7 +18826,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="537" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B537" t="s">
         <v>743</v>
       </c>
@@ -18851,7 +18853,7 @@
         <v>42699</v>
       </c>
     </row>
-    <row r="538" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>382</v>
       </c>
@@ -18881,7 +18883,7 @@
         <v>42458</v>
       </c>
     </row>
-    <row r="539" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B539" t="s">
         <v>744</v>
       </c>
@@ -18908,7 +18910,7 @@
         <v>42499</v>
       </c>
     </row>
-    <row r="540" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>532</v>
       </c>
@@ -18935,7 +18937,7 @@
         <v>42423</v>
       </c>
     </row>
-    <row r="541" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B541" t="s">
         <v>745</v>
       </c>
@@ -18959,7 +18961,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="542" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B542" t="s">
         <v>43</v>
       </c>
@@ -18986,7 +18988,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="543" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>226</v>
       </c>
@@ -19013,7 +19015,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="544" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B544" t="s">
         <v>752</v>
       </c>
@@ -19037,7 +19039,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="545" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>419</v>
       </c>
@@ -19067,7 +19069,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="546" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>775</v>
       </c>
@@ -19094,7 +19096,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="547" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B547" t="s">
         <v>768</v>
       </c>
@@ -19121,7 +19123,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="548" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B548" t="s">
         <v>795</v>
       </c>
@@ -19145,7 +19147,7 @@
         <v>42979</v>
       </c>
     </row>
-    <row r="549" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>557</v>
       </c>
@@ -19172,7 +19174,7 @@
         <v>42024</v>
       </c>
     </row>
-    <row r="550" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B550" t="s">
         <v>144</v>
       </c>
@@ -19199,7 +19201,7 @@
         <v>42499</v>
       </c>
     </row>
-    <row r="551" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>556</v>
       </c>
@@ -19226,7 +19228,7 @@
         <v>42094</v>
       </c>
     </row>
-    <row r="552" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>773</v>
       </c>
@@ -19253,7 +19255,7 @@
         <v>42938</v>
       </c>
     </row>
-    <row r="553" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>714</v>
       </c>
@@ -19280,7 +19282,7 @@
         <v>42812</v>
       </c>
     </row>
-    <row r="554" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>91</v>
       </c>
@@ -19310,7 +19312,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="555" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>418</v>
       </c>
@@ -19337,7 +19339,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="556" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B556" t="s">
         <v>386</v>
       </c>
@@ -19361,7 +19363,7 @@
         <v>42939</v>
       </c>
     </row>
-    <row r="557" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>774</v>
       </c>
@@ -19388,7 +19390,7 @@
         <v>42934</v>
       </c>
     </row>
-    <row r="558" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B558" t="s">
         <v>770</v>
       </c>
@@ -19415,7 +19417,7 @@
         <v>42682</v>
       </c>
     </row>
-    <row r="559" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B559" t="s">
         <v>747</v>
       </c>
@@ -19442,7 +19444,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="560" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>555</v>
       </c>
@@ -19469,7 +19471,7 @@
         <v>41761</v>
       </c>
     </row>
-    <row r="561" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>760</v>
       </c>
@@ -19496,7 +19498,7 @@
         <v>42979</v>
       </c>
     </row>
-    <row r="562" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>545</v>
       </c>
@@ -19523,7 +19525,7 @@
         <v>41949</v>
       </c>
     </row>
-    <row r="563" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>645</v>
       </c>
@@ -19553,7 +19555,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="564" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>717</v>
       </c>
@@ -19583,7 +19585,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="565" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B565" t="s">
         <v>757</v>
       </c>
@@ -19610,7 +19612,7 @@
         <v>42611</v>
       </c>
     </row>
-    <row r="566" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B566" t="s">
         <v>82</v>
       </c>
@@ -19634,7 +19636,7 @@
         <v>42699</v>
       </c>
     </row>
-    <row r="567" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>211</v>
       </c>
@@ -19661,7 +19663,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="568" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>677</v>
       </c>
@@ -19688,7 +19690,7 @@
         <v>42615</v>
       </c>
     </row>
-    <row r="569" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B569" t="s">
         <v>200</v>
       </c>
@@ -19712,7 +19714,7 @@
         <v>42178</v>
       </c>
     </row>
-    <row r="570" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B570" t="s">
         <v>749</v>
       </c>
@@ -19736,7 +19738,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="571" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B571" t="s">
         <v>773</v>
       </c>
@@ -19760,7 +19762,7 @@
         <v>42767</v>
       </c>
     </row>
-    <row r="572" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B572" t="s">
         <v>60</v>
       </c>
@@ -19784,7 +19786,7 @@
         <v>42297</v>
       </c>
     </row>
-    <row r="573" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A573" s="5">
         <v>3</v>
       </c>
@@ -19815,7 +19817,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="574" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A574" s="5">
         <v>258</v>
       </c>
@@ -19846,7 +19848,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="575" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A575" s="5">
         <v>398</v>
       </c>
@@ -19881,7 +19883,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="576" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A576" s="5">
         <v>241</v>
       </c>
@@ -19912,7 +19914,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="577" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A577" s="5">
         <v>56</v>
       </c>
@@ -19943,7 +19945,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="578" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A578" s="5">
         <v>392</v>
       </c>
@@ -19974,7 +19976,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="579" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A579" s="5">
         <v>36</v>
       </c>
@@ -20005,7 +20007,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="580" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A580" s="5">
         <v>169</v>
       </c>
@@ -20036,7 +20038,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="581" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A581" s="5">
         <v>93</v>
       </c>
@@ -20067,7 +20069,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="582" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A582" s="5">
         <v>75</v>
       </c>
@@ -20098,7 +20100,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="583" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A583" s="5">
         <v>235</v>
       </c>
@@ -20129,7 +20131,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="584" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A584" s="5">
         <v>168</v>
       </c>
@@ -20160,7 +20162,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="585" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A585" s="5">
         <v>309</v>
       </c>
@@ -20191,7 +20193,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="586" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A586" s="5">
         <v>145</v>
       </c>
@@ -20222,7 +20224,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="587" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A587" s="5">
         <v>139</v>
       </c>
@@ -20257,7 +20259,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="588" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A588" s="5">
         <v>236</v>
       </c>
@@ -20288,7 +20290,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="589" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A589" s="5">
         <v>5</v>
       </c>
@@ -20319,7 +20321,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="590" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A590" s="5">
         <v>37</v>
       </c>
@@ -20350,7 +20352,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="591" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A591" s="5">
         <v>202</v>
       </c>
@@ -20381,7 +20383,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="592" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B592" t="s">
         <v>24</v>
       </c>
@@ -20405,7 +20407,7 @@
         <v>41733</v>
       </c>
     </row>
-    <row r="593" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B593" t="s">
         <v>604</v>
       </c>
@@ -20429,7 +20431,7 @@
         <v>41695</v>
       </c>
     </row>
-    <row r="594" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594" s="7">
         <v>611</v>
       </c>
@@ -20456,7 +20458,7 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="595" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595" s="7">
         <v>289</v>
       </c>
@@ -20483,7 +20485,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="596" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A596" s="7">
         <v>477</v>
       </c>
@@ -20510,7 +20512,7 @@
         <v>41876</v>
       </c>
     </row>
-    <row r="597" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A597" s="7">
         <v>290</v>
       </c>
@@ -20537,7 +20539,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="598" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B598" t="s">
         <v>843</v>
       </c>
@@ -20561,7 +20563,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="599" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>544</v>
       </c>
@@ -20588,7 +20590,7 @@
         <v>42397</v>
       </c>
     </row>
-    <row r="600" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B600" t="s">
         <v>227</v>
       </c>
@@ -20612,7 +20614,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="601" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B601" t="s">
         <v>89</v>
       </c>
@@ -20636,7 +20638,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="602" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B602" t="s">
         <v>139</v>
       </c>
@@ -20660,7 +20662,7 @@
         <v>42072</v>
       </c>
     </row>
-    <row r="603" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>338</v>
       </c>
@@ -20687,7 +20689,7 @@
         <v>41378</v>
       </c>
     </row>
-    <row r="604" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>360</v>
       </c>
@@ -20714,7 +20716,7 @@
         <v>42517</v>
       </c>
     </row>
-    <row r="605" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B605" t="s">
         <v>368</v>
       </c>
@@ -20738,7 +20740,7 @@
         <v>42628</v>
       </c>
     </row>
-    <row r="606" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>358</v>
       </c>
@@ -20765,7 +20767,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="607" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>284</v>
       </c>
@@ -20792,7 +20794,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="608" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B608" t="s">
         <v>193</v>
       </c>
@@ -20819,7 +20821,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="609" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B609" t="s">
         <v>400</v>
       </c>
@@ -20843,7 +20845,7 @@
         <v>42628</v>
       </c>
     </row>
-    <row r="610" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B610" t="s">
         <v>313</v>
       </c>
@@ -20867,7 +20869,7 @@
         <v>41381</v>
       </c>
     </row>
-    <row r="611" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>599</v>
       </c>
@@ -20894,7 +20896,7 @@
         <v>42467</v>
       </c>
     </row>
-    <row r="612" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>329</v>
       </c>
@@ -20921,7 +20923,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="613" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>397</v>
       </c>
@@ -20948,7 +20950,7 @@
         <v>41444</v>
       </c>
     </row>
-    <row r="614" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>283</v>
       </c>
@@ -20975,7 +20977,7 @@
         <v>42548</v>
       </c>
     </row>
-    <row r="615" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>463</v>
       </c>
@@ -21002,7 +21004,7 @@
         <v>41695</v>
       </c>
     </row>
-    <row r="616" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>453</v>
       </c>
@@ -21029,7 +21031,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="617" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>361</v>
       </c>
@@ -21056,7 +21058,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="618" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>330</v>
       </c>
@@ -21083,7 +21085,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="619" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B619" t="s">
         <v>845</v>
       </c>
@@ -21107,7 +21109,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="620" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>742</v>
       </c>
@@ -21134,7 +21136,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="621" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B621" t="s">
         <v>194</v>
       </c>
@@ -21158,7 +21160,7 @@
         <v>42424</v>
       </c>
     </row>
-    <row r="622" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B622" t="s">
         <v>842</v>
       </c>
@@ -21182,7 +21184,7 @@
         <v>41716</v>
       </c>
     </row>
-    <row r="623" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B623" t="s">
         <v>857</v>
       </c>
@@ -21206,7 +21208,7 @@
         <v>42628</v>
       </c>
     </row>
-    <row r="624" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>359</v>
       </c>
@@ -21233,7 +21235,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="625" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>716</v>
       </c>
@@ -21260,7 +21262,7 @@
         <v>42751</v>
       </c>
     </row>
-    <row r="626" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>749</v>
       </c>
@@ -21287,7 +21289,7 @@
         <v>42817</v>
       </c>
     </row>
-    <row r="627" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B627" t="s">
         <v>861</v>
       </c>
@@ -21311,7 +21313,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="628" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B628" t="s">
         <v>862</v>
       </c>
@@ -21335,7 +21337,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="629" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A629" s="5">
         <v>384</v>
       </c>
@@ -21370,7 +21372,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="630" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A630" s="5">
         <v>291</v>
       </c>
@@ -21405,7 +21407,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="631" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B631" t="s">
         <v>151</v>
       </c>
@@ -21432,7 +21434,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="632" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>454</v>
       </c>
@@ -21459,7 +21461,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="633" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B633" t="s">
         <v>900</v>
       </c>
@@ -21483,7 +21485,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="634" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B634" t="s">
         <v>218</v>
       </c>
@@ -21507,7 +21509,7 @@
         <v>42898</v>
       </c>
     </row>
-    <row r="635" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>591</v>
       </c>
@@ -21534,7 +21536,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="636" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>466</v>
       </c>
@@ -21567,7 +21569,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="637" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B637" t="s">
         <v>139</v>
       </c>
@@ -21591,7 +21593,7 @@
         <v>42899</v>
       </c>
     </row>
-    <row r="638" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B638" t="s">
         <v>74</v>
       </c>
@@ -21615,7 +21617,7 @@
         <v>41899</v>
       </c>
     </row>
-    <row r="639" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B639" t="s">
         <v>901</v>
       </c>
@@ -21639,7 +21641,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="640" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B640" t="s">
         <v>143</v>
       </c>
@@ -21666,7 +21668,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="641" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B641" t="s">
         <v>43</v>
       </c>
@@ -21690,7 +21692,7 @@
         <v>42053</v>
       </c>
     </row>
-    <row r="642" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B642" t="s">
         <v>60</v>
       </c>
@@ -21714,7 +21716,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="643" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B643" t="s">
         <v>901</v>
       </c>
@@ -21741,7 +21743,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="644" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B644" t="s">
         <v>136</v>
       </c>
@@ -21768,7 +21770,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="645" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B645" t="s">
         <v>61</v>
       </c>
@@ -21792,7 +21794,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="646" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B646" t="s">
         <v>84</v>
       </c>
@@ -21816,7 +21818,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="647" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B647" t="s">
         <v>60</v>
       </c>
@@ -21840,7 +21842,7 @@
         <v>42415</v>
       </c>
     </row>
-    <row r="648" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B648" t="s">
         <v>199</v>
       </c>
@@ -21867,7 +21869,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="649" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B649" t="s">
         <v>193</v>
       </c>
@@ -21891,7 +21893,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="650" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B650" t="s">
         <v>902</v>
       </c>
@@ -21915,7 +21917,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="651" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B651" t="s">
         <v>903</v>
       </c>
@@ -21939,7 +21941,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="652" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B652" t="s">
         <v>904</v>
       </c>
@@ -21966,7 +21968,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="653" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>506</v>
       </c>
@@ -21993,7 +21995,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="654" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B654" t="s">
         <v>151</v>
       </c>
@@ -22017,7 +22019,7 @@
         <v>42604</v>
       </c>
     </row>
-    <row r="655" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B655" t="s">
         <v>141</v>
       </c>
@@ -22041,7 +22043,7 @@
         <v>42468</v>
       </c>
     </row>
-    <row r="656" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B656" t="s">
         <v>906</v>
       </c>
@@ -22065,7 +22067,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="657" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B657" t="s">
         <v>142</v>
       </c>
@@ -22089,7 +22091,7 @@
         <v>41899</v>
       </c>
     </row>
-    <row r="658" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B658" t="s">
         <v>304</v>
       </c>
@@ -22113,7 +22115,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="659" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>460</v>
       </c>
@@ -22140,7 +22142,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="660" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B660" t="s">
         <v>59</v>
       </c>
@@ -22164,7 +22166,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="661" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B661" t="s">
         <v>907</v>
       </c>
@@ -22188,7 +22190,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="662" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B662" t="s">
         <v>320</v>
       </c>
@@ -22212,7 +22214,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="663" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>462</v>
       </c>
@@ -22239,7 +22241,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="664" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B664" t="s">
         <v>739</v>
       </c>
@@ -22266,7 +22268,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="665" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>593</v>
       </c>
@@ -22293,7 +22295,7 @@
         <v>42317</v>
       </c>
     </row>
-    <row r="666" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B666" t="s">
         <v>142</v>
       </c>
@@ -22317,7 +22319,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="667" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B667" t="s">
         <v>58</v>
       </c>
@@ -22341,7 +22343,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="668" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B668" t="s">
         <v>695</v>
       </c>
@@ -22365,7 +22367,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="669" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B669" t="s">
         <v>24</v>
       </c>
@@ -22389,7 +22391,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="670" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B670" t="s">
         <v>143</v>
       </c>
@@ -22413,7 +22415,7 @@
         <v>42053</v>
       </c>
     </row>
-    <row r="671" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>592</v>
       </c>
@@ -22440,7 +22442,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="672" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B672" t="s">
         <v>529</v>
       </c>
@@ -22464,7 +22466,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="673" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B673" t="s">
         <v>194</v>
       </c>
@@ -22488,7 +22490,7 @@
         <v>42900</v>
       </c>
     </row>
-    <row r="674" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B674" t="s">
         <v>44</v>
       </c>
@@ -22512,7 +22514,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="675" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>507</v>
       </c>
@@ -22539,7 +22541,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="676" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B676" t="s">
         <v>790</v>
       </c>
@@ -22563,7 +22565,7 @@
         <v>42053</v>
       </c>
     </row>
-    <row r="677" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B677" t="s">
         <v>914</v>
       </c>
@@ -22587,7 +22589,7 @@
         <v>42781</v>
       </c>
     </row>
-    <row r="678" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B678" t="s">
         <v>375</v>
       </c>
@@ -22611,7 +22613,7 @@
         <v>42781</v>
       </c>
     </row>
-    <row r="679" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B679" t="s">
         <v>24</v>
       </c>
@@ -22635,7 +22637,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="680" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B680" t="s">
         <v>91</v>
       </c>
@@ -22659,7 +22661,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="681" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B681" t="s">
         <v>739</v>
       </c>
@@ -22683,7 +22685,7 @@
         <v>42975</v>
       </c>
     </row>
-    <row r="682" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B682" t="s">
         <v>56</v>
       </c>
@@ -22707,7 +22709,7 @@
         <v>42975</v>
       </c>
     </row>
-    <row r="683" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>594</v>
       </c>
@@ -22731,7 +22733,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="684" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>513</v>
       </c>
@@ -22758,7 +22760,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="685" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B685" t="s">
         <v>143</v>
       </c>
@@ -22782,7 +22784,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="686" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>687</v>
       </c>
@@ -22809,7 +22811,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="687" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B687" t="s">
         <v>193</v>
       </c>
@@ -22833,7 +22835,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="688" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>609</v>
       </c>
@@ -22860,7 +22862,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="689" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>537</v>
       </c>
@@ -22887,7 +22889,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="690" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>697</v>
       </c>
@@ -22914,7 +22916,7 @@
         <v>42498</v>
       </c>
     </row>
-    <row r="691" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B691" t="s">
         <v>199</v>
       </c>
@@ -22938,7 +22940,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="692" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B692" t="s">
         <v>622</v>
       </c>
@@ -22962,7 +22964,7 @@
         <v>42442</v>
       </c>
     </row>
-    <row r="693" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B693" t="s">
         <v>218</v>
       </c>
@@ -22986,7 +22988,7 @@
         <v>42510</v>
       </c>
     </row>
-    <row r="694" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B694" t="s">
         <v>42</v>
       </c>
@@ -23010,7 +23012,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="695" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>625</v>
       </c>
@@ -23037,7 +23039,7 @@
         <v>42415</v>
       </c>
     </row>
-    <row r="696" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>512</v>
       </c>
@@ -23064,7 +23066,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="697" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>610</v>
       </c>
@@ -23091,7 +23093,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="698" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B698" t="s">
         <v>197</v>
       </c>
@@ -23115,7 +23117,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="699" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B699" t="s">
         <v>227</v>
       </c>
@@ -23139,7 +23141,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="700" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B700" t="s">
         <v>970</v>
       </c>
@@ -23163,7 +23165,7 @@
         <v>43013</v>
       </c>
     </row>
-    <row r="701" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B701" t="s">
         <v>951</v>
       </c>
@@ -23187,7 +23189,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="702" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B702" t="s">
         <v>533</v>
       </c>
@@ -23211,7 +23213,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="703" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B703" t="s">
         <v>533</v>
       </c>
@@ -23235,7 +23237,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="704" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B704" t="s">
         <v>947</v>
       </c>
@@ -23259,7 +23261,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="705" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>511</v>
       </c>
@@ -23286,7 +23288,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="706" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B706" t="s">
         <v>200</v>
       </c>
@@ -23310,7 +23312,7 @@
         <v>42673</v>
       </c>
     </row>
-    <row r="707" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B707" t="s">
         <v>143</v>
       </c>
@@ -23334,7 +23336,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="708" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B708" t="s">
         <v>199</v>
       </c>
@@ -23358,7 +23360,7 @@
         <v>42819</v>
       </c>
     </row>
-    <row r="709" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B709" t="s">
         <v>157</v>
       </c>
@@ -23382,7 +23384,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="710" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B710" t="s">
         <v>622</v>
       </c>
@@ -23406,7 +23408,7 @@
         <v>42442</v>
       </c>
     </row>
-    <row r="711" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>650</v>
       </c>
@@ -23433,7 +23435,7 @@
         <v>42796</v>
       </c>
     </row>
-    <row r="712" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B712" t="s">
         <v>966</v>
       </c>
@@ -23457,7 +23459,7 @@
         <v>42828</v>
       </c>
     </row>
-    <row r="713" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B713" t="s">
         <v>968</v>
       </c>
@@ -23481,7 +23483,7 @@
         <v>42846</v>
       </c>
     </row>
-    <row r="714" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>604</v>
       </c>
@@ -23508,7 +23510,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="715" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B715" t="s">
         <v>950</v>
       </c>
@@ -23532,7 +23534,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="716" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>510</v>
       </c>
@@ -23559,7 +23561,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="717" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>538</v>
       </c>
@@ -23586,7 +23588,7 @@
         <v>42442</v>
       </c>
     </row>
-    <row r="718" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B718" t="s">
         <v>946</v>
       </c>
@@ -23610,7 +23612,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="719" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>694</v>
       </c>
@@ -23637,7 +23639,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="720" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>712</v>
       </c>
@@ -23664,7 +23666,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="721" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>718</v>
       </c>
@@ -23691,7 +23693,7 @@
         <v>42801</v>
       </c>
     </row>
-    <row r="722" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B722" t="s">
         <v>131</v>
       </c>
@@ -23715,7 +23717,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="723" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>534</v>
       </c>
@@ -23742,7 +23744,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="724" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B724" t="s">
         <v>1006</v>
       </c>
@@ -23766,7 +23768,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="725" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B725" t="s">
         <v>1025</v>
       </c>
@@ -23790,7 +23792,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="726" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B726" t="s">
         <v>1010</v>
       </c>
@@ -23814,7 +23816,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="727" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B727" t="s">
         <v>1027</v>
       </c>
@@ -23838,7 +23840,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="728" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B728" t="s">
         <v>1006</v>
       </c>
@@ -23862,7 +23864,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="729" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>579</v>
       </c>
@@ -23889,7 +23891,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="730" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>580</v>
       </c>
@@ -23916,7 +23918,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="731" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B731" t="s">
         <v>1017</v>
       </c>
@@ -23940,7 +23942,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="732" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>722</v>
       </c>
@@ -23967,7 +23969,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="733" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B733" t="s">
         <v>1023</v>
       </c>
@@ -23991,7 +23993,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="734" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>584</v>
       </c>
@@ -24018,7 +24020,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="735" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>721</v>
       </c>
@@ -24045,7 +24047,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="736" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B736" t="s">
         <v>991</v>
       </c>
@@ -24069,7 +24071,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="737" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>539</v>
       </c>
@@ -24096,7 +24098,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="738" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>522</v>
       </c>
@@ -24126,7 +24128,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="739" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B739" t="s">
         <v>1006</v>
       </c>
@@ -24150,7 +24152,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="740" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>535</v>
       </c>
@@ -24177,7 +24179,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="741" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B741" t="s">
         <v>379</v>
       </c>
@@ -24201,7 +24203,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="742" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B742" t="s">
         <v>145</v>
       </c>
@@ -24225,7 +24227,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="743" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>595</v>
       </c>
@@ -24252,7 +24254,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="744" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B744" t="s">
         <v>1021</v>
       </c>
@@ -24279,7 +24281,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="745" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>541</v>
       </c>
@@ -24306,7 +24308,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="746" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>549</v>
       </c>
@@ -24333,7 +24335,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="747" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>540</v>
       </c>
@@ -24360,7 +24362,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="748" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B748" t="s">
         <v>1004</v>
       </c>
@@ -24384,7 +24386,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="749" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B749" t="s">
         <v>995</v>
       </c>
@@ -24408,7 +24410,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="750" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>581</v>
       </c>
@@ -24435,7 +24437,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="751" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>627</v>
       </c>
@@ -24462,7 +24464,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="752" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B752" t="s">
         <v>852</v>
       </c>
@@ -24489,7 +24491,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="753" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>632</v>
       </c>
@@ -24516,7 +24518,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="754" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B754" t="s">
         <v>997</v>
       </c>
@@ -24540,7 +24542,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="755" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>679</v>
       </c>
@@ -24567,7 +24569,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="756" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B756" t="s">
         <v>998</v>
       </c>
@@ -24591,7 +24593,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="757" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B757" t="s">
         <v>1005</v>
       </c>
@@ -24618,7 +24620,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="758" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>523</v>
       </c>
@@ -24645,7 +24647,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="759" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B759" t="s">
         <v>131</v>
       </c>
@@ -24669,7 +24671,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="760" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B760" t="s">
         <v>1030</v>
       </c>
@@ -24693,7 +24695,7 @@
         <v>42781</v>
       </c>
     </row>
-    <row r="761" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B761" t="s">
         <v>1032</v>
       </c>
@@ -24717,7 +24719,7 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="762" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B762" t="s">
         <v>1034</v>
       </c>
@@ -24768,7 +24770,7 @@
         <v>42987</v>
       </c>
     </row>
-    <row r="764" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B764" t="s">
         <v>1036</v>
       </c>
@@ -24792,7 +24794,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="765" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B765" t="s">
         <v>1037</v>
       </c>
@@ -24816,7 +24818,7 @@
         <v>43010</v>
       </c>
     </row>
-    <row r="766" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>455</v>
       </c>
@@ -24843,7 +24845,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="767" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B767" t="s">
         <v>692</v>
       </c>
@@ -24867,7 +24869,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="768" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B768" t="s">
         <v>533</v>
       </c>
@@ -24891,7 +24893,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="769" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>126</v>
       </c>
@@ -24918,7 +24920,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="770" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B770" t="s">
         <v>162</v>
       </c>
@@ -24942,7 +24944,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="771" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B771" t="s">
         <v>378</v>
       </c>
@@ -24966,7 +24968,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="772" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B772" t="s">
         <v>201</v>
       </c>
@@ -24990,7 +24992,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="773" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>244</v>
       </c>
@@ -25017,7 +25019,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="774" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B774" t="s">
         <v>199</v>
       </c>
@@ -25041,7 +25043,7 @@
         <v>42490</v>
       </c>
     </row>
-    <row r="775" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>127</v>
       </c>
@@ -25068,7 +25070,7 @@
         <v>40987</v>
       </c>
     </row>
-    <row r="776" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>488</v>
       </c>
@@ -25095,7 +25097,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="777" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>47</v>
       </c>
@@ -25122,7 +25124,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="778" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>48</v>
       </c>
@@ -25149,7 +25151,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="779" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B779" t="s">
         <v>143</v>
       </c>
@@ -25173,7 +25175,7 @@
         <v>41232</v>
       </c>
     </row>
-    <row r="780" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B780" t="s">
         <v>1082</v>
       </c>
@@ -25197,7 +25199,7 @@
         <v>42285</v>
       </c>
     </row>
-    <row r="781" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B781" t="s">
         <v>199</v>
       </c>
@@ -25221,7 +25223,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="782" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>571</v>
       </c>
@@ -25248,7 +25250,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="783" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>681</v>
       </c>
@@ -25275,7 +25277,7 @@
         <v>41794</v>
       </c>
     </row>
-    <row r="784" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>128</v>
       </c>
@@ -25302,7 +25304,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="785" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>66</v>
       </c>
@@ -25329,7 +25331,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="786" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B786" t="s">
         <v>1094</v>
       </c>
@@ -25353,7 +25355,7 @@
         <v>42424</v>
       </c>
     </row>
-    <row r="787" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B787" t="s">
         <v>1084</v>
       </c>
@@ -25377,7 +25379,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="788" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B788" t="s">
         <v>1085</v>
       </c>
@@ -25401,7 +25403,7 @@
         <v>42270</v>
       </c>
     </row>
-    <row r="789" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B789" t="s">
         <v>1086</v>
       </c>
@@ -25425,7 +25427,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="790" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>103</v>
       </c>
@@ -25452,7 +25454,7 @@
         <v>40971</v>
       </c>
     </row>
-    <row r="791" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>49</v>
       </c>
@@ -25479,7 +25481,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="792" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B792" t="s">
         <v>1087</v>
       </c>
@@ -25503,7 +25505,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="793" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B793" t="s">
         <v>533</v>
       </c>
@@ -25527,7 +25529,7 @@
         <v>41186</v>
       </c>
     </row>
-    <row r="794" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B794" t="s">
         <v>375</v>
       </c>
@@ -25551,7 +25553,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="795" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>423</v>
       </c>
@@ -25578,7 +25580,7 @@
         <v>41171</v>
       </c>
     </row>
-    <row r="796" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B796" t="s">
         <v>1088</v>
       </c>
@@ -25602,7 +25604,7 @@
         <v>41724</v>
       </c>
     </row>
-    <row r="797" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>50</v>
       </c>
@@ -25629,7 +25631,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="798" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B798" t="s">
         <v>1098</v>
       </c>
@@ -25653,7 +25655,7 @@
         <v>42579</v>
       </c>
     </row>
-    <row r="799" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B799" t="s">
         <v>746</v>
       </c>
@@ -25677,7 +25679,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="800" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B800" t="s">
         <v>44</v>
       </c>
@@ -25701,7 +25703,7 @@
         <v>42120</v>
       </c>
     </row>
-    <row r="801" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B801" t="s">
         <v>89</v>
       </c>
@@ -25725,7 +25727,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="802" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B802" t="s">
         <v>143</v>
       </c>
@@ -25749,7 +25751,7 @@
         <v>42983</v>
       </c>
     </row>
-    <row r="803" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B803" t="s">
         <v>194</v>
       </c>
@@ -25773,7 +25775,7 @@
         <v>42270</v>
       </c>
     </row>
-    <row r="804" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B804" t="s">
         <v>200</v>
       </c>
@@ -25797,7 +25799,7 @@
         <v>42406</v>
       </c>
     </row>
-    <row r="805" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>688</v>
       </c>
@@ -25824,7 +25826,7 @@
         <v>41876</v>
       </c>
     </row>
-    <row r="806" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B806" t="s">
         <v>156</v>
       </c>
@@ -25848,7 +25850,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="807" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B807" t="s">
         <v>1090</v>
       </c>
@@ -25872,7 +25874,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="808" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B808" t="s">
         <v>1091</v>
       </c>
@@ -25896,7 +25898,7 @@
         <v>40977</v>
       </c>
     </row>
-    <row r="809" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>390</v>
       </c>
@@ -25923,7 +25925,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="810" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>690</v>
       </c>
@@ -25950,7 +25952,7 @@
         <v>41870</v>
       </c>
     </row>
-    <row r="811" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B811" t="s">
         <v>155</v>
       </c>
@@ -25974,7 +25976,7 @@
         <v>41680</v>
       </c>
     </row>
-    <row r="812" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B812" t="s">
         <v>1092</v>
       </c>
@@ -25998,7 +26000,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="813" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B813" t="s">
         <v>44</v>
       </c>
@@ -26022,7 +26024,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="814" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>411</v>
       </c>
@@ -26049,7 +26051,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="815" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B815" t="s">
         <v>305</v>
       </c>
@@ -26073,7 +26075,7 @@
         <v>41186</v>
       </c>
     </row>
-    <row r="816" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B816" t="s">
         <v>142</v>
       </c>
@@ -26097,7 +26099,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="817" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B817" t="s">
         <v>690</v>
       </c>
@@ -26121,7 +26123,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="818" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B818" t="s">
         <v>44</v>
       </c>
@@ -26145,7 +26147,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="819" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>403</v>
       </c>
@@ -26172,7 +26174,7 @@
         <v>40987</v>
       </c>
     </row>
-    <row r="820" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>223</v>
       </c>
@@ -26199,7 +26201,7 @@
         <v>41195</v>
       </c>
     </row>
-    <row r="821" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>457</v>
       </c>
@@ -26226,7 +26228,7 @@
         <v>41726</v>
       </c>
     </row>
-    <row r="822" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B822" t="s">
         <v>1107</v>
       </c>
@@ -26250,7 +26252,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="823" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B823" t="s">
         <v>43</v>
       </c>
@@ -26274,7 +26276,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="824" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B824" t="s">
         <v>145</v>
       </c>
@@ -26298,7 +26300,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="825" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B825" t="s">
         <v>225</v>
       </c>
@@ -26322,7 +26324,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="826" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B826" t="s">
         <v>423</v>
       </c>
@@ -26346,7 +26348,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="827" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B827" t="s">
         <v>1124</v>
       </c>
@@ -26370,7 +26372,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="828" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B828" t="s">
         <v>1125</v>
       </c>
@@ -26394,7 +26396,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="829" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B829" t="s">
         <v>1126</v>
       </c>
@@ -26418,7 +26420,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="830" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B830" t="s">
         <v>437</v>
       </c>
@@ -26442,7 +26444,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="831" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B831" t="s">
         <v>1127</v>
       </c>
@@ -26466,7 +26468,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="832" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B832" t="s">
         <v>143</v>
       </c>
@@ -26490,7 +26492,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="833" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B833" t="s">
         <v>805</v>
       </c>
@@ -26514,7 +26516,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="834" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B834" t="s">
         <v>141</v>
       </c>
@@ -26538,7 +26540,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="835" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B835" t="s">
         <v>745</v>
       </c>
@@ -26562,7 +26564,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="836" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B836" t="s">
         <v>1120</v>
       </c>
@@ -26586,7 +26588,7 @@
         <v>42741</v>
       </c>
     </row>
-    <row r="837" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B837" t="s">
         <v>1109</v>
       </c>
@@ -26610,7 +26612,7 @@
         <v>42741</v>
       </c>
     </row>
-    <row r="838" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B838" t="s">
         <v>1109</v>
       </c>
@@ -26634,7 +26636,7 @@
         <v>42741</v>
       </c>
     </row>
-    <row r="839" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B839" t="s">
         <v>218</v>
       </c>
@@ -26658,7 +26660,7 @@
         <v>42766</v>
       </c>
     </row>
-    <row r="840" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B840" t="s">
         <v>666</v>
       </c>
@@ -26682,7 +26684,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="841" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B841" t="s">
         <v>1110</v>
       </c>
@@ -26706,7 +26708,7 @@
         <v>42809</v>
       </c>
     </row>
-    <row r="842" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B842" t="s">
         <v>151</v>
       </c>
@@ -26730,7 +26732,7 @@
         <v>42863</v>
       </c>
     </row>
-    <row r="843" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B843" t="s">
         <v>1111</v>
       </c>
@@ -26754,7 +26756,7 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="844" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B844" t="s">
         <v>306</v>
       </c>
@@ -26778,7 +26780,7 @@
         <v>42411</v>
       </c>
     </row>
-    <row r="845" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B845" t="s">
         <v>1162</v>
       </c>
@@ -26802,7 +26804,7 @@
         <v>42606</v>
       </c>
     </row>
-    <row r="846" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B846" t="s">
         <v>1148</v>
       </c>
@@ -26826,7 +26828,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="847" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B847" t="s">
         <v>1149</v>
       </c>
@@ -26850,7 +26852,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="848" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B848" t="s">
         <v>1150</v>
       </c>
@@ -26874,7 +26876,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="849" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>530</v>
       </c>
@@ -26901,7 +26903,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="850" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B850" t="s">
         <v>299</v>
       </c>
@@ -26925,7 +26927,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="851" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A851" s="5"/>
       <c r="B851" s="5" t="s">
         <v>162</v>
@@ -26958,7 +26960,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="852" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B852" t="s">
         <v>1167</v>
       </c>
@@ -26982,7 +26984,7 @@
         <v>42678</v>
       </c>
     </row>
-    <row r="853" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B853" t="s">
         <v>423</v>
       </c>
@@ -27006,7 +27008,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="854" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B854" t="s">
         <v>44</v>
       </c>
@@ -27030,7 +27032,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="855" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B855" t="s">
         <v>61</v>
       </c>
@@ -27054,7 +27056,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="856" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>559</v>
       </c>
@@ -27081,7 +27083,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="857" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B857" t="s">
         <v>1151</v>
       </c>
@@ -27105,7 +27107,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="858" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B858" t="s">
         <v>1152</v>
       </c>
@@ -27129,7 +27131,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="859" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B859" t="s">
         <v>1156</v>
       </c>
@@ -27153,7 +27155,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="860" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B860" t="s">
         <v>1159</v>
       </c>
@@ -27177,7 +27179,7 @@
         <v>42474</v>
       </c>
     </row>
-    <row r="861" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B861" t="s">
         <v>1165</v>
       </c>
@@ -27201,7 +27203,7 @@
         <v>42664</v>
       </c>
     </row>
-    <row r="862" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>529</v>
       </c>
@@ -27228,7 +27230,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="863" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B863" t="s">
         <v>695</v>
       </c>
@@ -27252,7 +27254,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="864" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B864" t="s">
         <v>1154</v>
       </c>
@@ -27276,7 +27278,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="865" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B865" t="s">
         <v>71</v>
       </c>
@@ -27300,7 +27302,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="866" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B866" t="s">
         <v>433</v>
       </c>
@@ -27324,7 +27326,7 @@
         <v>42590</v>
       </c>
     </row>
-    <row r="867" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B867" t="s">
         <v>1012</v>
       </c>
@@ -27348,7 +27350,7 @@
         <v>42604</v>
       </c>
     </row>
-    <row r="868" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B868" t="s">
         <v>1164</v>
       </c>
@@ -27372,7 +27374,7 @@
         <v>42626</v>
       </c>
     </row>
-    <row r="869" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>596</v>
       </c>
@@ -27399,7 +27401,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="870" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B870" t="s">
         <v>227</v>
       </c>
@@ -27423,7 +27425,7 @@
         <v>42462</v>
       </c>
     </row>
-    <row r="871" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B871" t="s">
         <v>695</v>
       </c>
@@ -27447,7 +27449,7 @@
         <v>42462</v>
       </c>
     </row>
-    <row r="872" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B872" t="s">
         <v>197</v>
       </c>
@@ -27471,7 +27473,7 @@
         <v>42689</v>
       </c>
     </row>
-    <row r="873" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>484</v>
       </c>
@@ -27498,7 +27500,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="874" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>531</v>
       </c>
@@ -27525,7 +27527,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="875" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B875" t="s">
         <v>196</v>
       </c>
@@ -27549,7 +27551,7 @@
         <v>42240</v>
       </c>
     </row>
-    <row r="876" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>288</v>
       </c>
@@ -27582,7 +27584,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="877" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>400</v>
       </c>
@@ -27609,7 +27611,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="878" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B878" t="s">
         <v>1210</v>
       </c>
@@ -27633,7 +27635,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="879" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>597</v>
       </c>
@@ -27669,7 +27671,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="880" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B880" t="s">
         <v>145</v>
       </c>
@@ -27696,7 +27698,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="881" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B881" t="s">
         <v>128</v>
       </c>
@@ -27720,7 +27722,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="882" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B882" t="s">
         <v>313</v>
       </c>
@@ -27747,7 +27749,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="883" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B883" t="s">
         <v>1223</v>
       </c>
@@ -27771,7 +27773,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="884" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B884" t="s">
         <v>193</v>
       </c>
@@ -27795,7 +27797,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="885" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B885" t="s">
         <v>80</v>
       </c>
@@ -27819,7 +27821,7 @@
         <v>42879</v>
       </c>
     </row>
-    <row r="886" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B886" t="s">
         <v>1065</v>
       </c>
@@ -27843,7 +27845,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="887" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B887" t="s">
         <v>1212</v>
       </c>
@@ -27870,7 +27872,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="888" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B888" t="s">
         <v>193</v>
       </c>
@@ -27897,7 +27899,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="889" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B889" t="s">
         <v>144</v>
       </c>
@@ -27921,7 +27923,7 @@
         <v>42052</v>
       </c>
     </row>
-    <row r="890" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>224</v>
       </c>
@@ -27954,7 +27956,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="891" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B891" t="s">
         <v>40</v>
       </c>
@@ -27978,7 +27980,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="892" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B892" t="s">
         <v>199</v>
       </c>
@@ -28002,7 +28004,7 @@
         <v>42447</v>
       </c>
     </row>
-    <row r="893" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B893" t="s">
         <v>24</v>
       </c>
@@ -28029,7 +28031,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="894" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B894" t="s">
         <v>199</v>
       </c>
@@ -28053,7 +28055,7 @@
         <v>42419</v>
       </c>
     </row>
-    <row r="895" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>138</v>
       </c>
@@ -28080,7 +28082,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="896" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>29</v>
       </c>
@@ -28107,7 +28109,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="897" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>1</v>
       </c>
@@ -28134,7 +28136,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="898" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>92</v>
       </c>
@@ -28161,7 +28163,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="899" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B899" t="s">
         <v>1220</v>
       </c>
@@ -28185,7 +28187,7 @@
         <v>42447</v>
       </c>
     </row>
-    <row r="900" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>399</v>
       </c>
@@ -28218,7 +28220,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="901" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B901" t="s">
         <v>60</v>
       </c>
@@ -28242,7 +28244,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="902" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>286</v>
       </c>
@@ -28269,7 +28271,7 @@
         <v>41317</v>
       </c>
     </row>
-    <row r="903" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>82</v>
       </c>
@@ -28296,7 +28298,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="904" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>2</v>
       </c>
@@ -28329,7 +28331,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="905" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>225</v>
       </c>
@@ -28362,7 +28364,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="906" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B906" t="s">
         <v>54</v>
       </c>
@@ -28386,7 +28388,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="907" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>646</v>
       </c>
@@ -28413,7 +28415,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="908" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B908" t="s">
         <v>143</v>
       </c>
@@ -28437,7 +28439,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="909" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>355</v>
       </c>
@@ -28464,7 +28466,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="910" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B910" t="s">
         <v>227</v>
       </c>
@@ -28488,7 +28490,7 @@
         <v>42629</v>
       </c>
     </row>
-    <row r="911" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B911" t="s">
         <v>231</v>
       </c>
@@ -28512,7 +28514,7 @@
         <v>42606</v>
       </c>
     </row>
-    <row r="912" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B912" t="s">
         <v>1221</v>
       </c>
@@ -28536,7 +28538,7 @@
         <v>42975</v>
       </c>
     </row>
-    <row r="913" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B913" t="s">
         <v>533</v>
       </c>
@@ -28560,7 +28562,7 @@
         <v>41712</v>
       </c>
     </row>
-    <row r="914" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B914" t="s">
         <v>60</v>
       </c>
@@ -28584,7 +28586,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="915" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B915" t="s">
         <v>151</v>
       </c>
@@ -28608,7 +28610,7 @@
         <v>42997</v>
       </c>
     </row>
-    <row r="916" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B916" t="s">
         <v>156</v>
       </c>
@@ -28635,7 +28637,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="917" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B917" t="s">
         <v>194</v>
       </c>
@@ -28659,7 +28661,7 @@
         <v>42879</v>
       </c>
     </row>
-    <row r="918" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B918" t="s">
         <v>197</v>
       </c>
@@ -28686,7 +28688,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="919" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>598</v>
       </c>
@@ -28716,7 +28718,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="920" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>148</v>
       </c>
@@ -28746,7 +28748,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="921" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>732</v>
       </c>
@@ -28773,7 +28775,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="922" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B922" t="s">
         <v>59</v>
       </c>
@@ -28797,7 +28799,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="923" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B923" t="s">
         <v>65</v>
       </c>
@@ -28821,7 +28823,7 @@
         <v>42879</v>
       </c>
     </row>
-    <row r="924" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>287</v>
       </c>
@@ -28848,7 +28850,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="925" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>588</v>
       </c>
@@ -28875,7 +28877,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="926" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>61</v>
       </c>
@@ -28903,7 +28905,7 @@
         <v>41274</v>
       </c>
     </row>
-    <row r="927" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>671</v>
       </c>
@@ -28930,7 +28932,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="928" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A928" s="5">
         <v>439</v>
       </c>
@@ -28961,7 +28963,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="929" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A929" s="5">
         <v>102</v>
       </c>
@@ -28992,7 +28994,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="930" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A930" s="5">
         <v>680</v>
       </c>
@@ -29027,7 +29029,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="931" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A931" s="5">
         <v>346</v>
       </c>
@@ -29062,7 +29064,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="932" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A932" s="5">
         <v>287</v>
       </c>
@@ -29097,7 +29099,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="933" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B933" t="s">
         <v>1240</v>
       </c>
@@ -29121,7 +29123,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="934" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A934" s="7">
         <v>656</v>
       </c>
@@ -29148,7 +29150,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="935" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B935" t="s">
         <v>91</v>
       </c>
@@ -29172,7 +29174,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="936" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B936" t="s">
         <v>438</v>
       </c>
@@ -29196,7 +29198,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="937" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>730</v>
       </c>
@@ -29223,7 +29225,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="938" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B938" t="s">
         <v>61</v>
       </c>
@@ -29247,7 +29249,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="939" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>655</v>
       </c>
@@ -29274,7 +29276,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="940" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>682</v>
       </c>
@@ -29301,7 +29303,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="941" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B941" t="s">
         <v>1248</v>
       </c>
@@ -29325,7 +29327,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="942" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>658</v>
       </c>
@@ -29352,7 +29354,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="943" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>683</v>
       </c>
@@ -29379,7 +29381,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="944" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>724</v>
       </c>
@@ -29406,7 +29408,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="945" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B945" t="s">
         <v>608</v>
       </c>
@@ -29430,7 +29432,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="946" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>657</v>
       </c>
@@ -29457,7 +29459,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="947" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B947" t="s">
         <v>56</v>
       </c>
@@ -29481,7 +29483,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="948" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B948" t="s">
         <v>162</v>
       </c>
@@ -29505,7 +29507,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="949" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>725</v>
       </c>
@@ -29532,7 +29534,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="950" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>678</v>
       </c>
@@ -29559,7 +29561,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="951" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B951" t="s">
         <v>142</v>
       </c>
@@ -29583,7 +29585,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="952" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B952" t="s">
         <v>197</v>
       </c>
@@ -29607,7 +29609,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="953" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B953" t="s">
         <v>1260</v>
       </c>
@@ -29631,7 +29633,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="954" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>769</v>
       </c>
@@ -29658,7 +29660,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="955" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B955" t="s">
         <v>1243</v>
       </c>
@@ -29682,7 +29684,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="956" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>704</v>
       </c>
@@ -29709,7 +29711,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="957" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>768</v>
       </c>
@@ -29736,7 +29738,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="958" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>764</v>
       </c>
@@ -29763,7 +29765,7 @@
         <v>42946</v>
       </c>
     </row>
-    <row r="959" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B959" t="s">
         <v>738</v>
       </c>
@@ -29787,7 +29789,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="960" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B960" t="s">
         <v>1262</v>
       </c>
@@ -29811,7 +29813,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="961" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B961" t="s">
         <v>193</v>
       </c>
@@ -29835,7 +29837,7 @@
         <v>42741</v>
       </c>
     </row>
-    <row r="962" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>740</v>
       </c>
@@ -29862,7 +29864,7 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="963" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B963" t="s">
         <v>193</v>
       </c>
@@ -29886,7 +29888,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="964" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B964" t="s">
         <v>167</v>
       </c>
@@ -29910,7 +29912,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="965" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>723</v>
       </c>
@@ -29937,7 +29939,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="966" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B966" t="s">
         <v>60</v>
       </c>
@@ -29961,7 +29963,7 @@
         <v>42843</v>
       </c>
     </row>
-    <row r="967" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A967" s="5"/>
       <c r="B967" s="5" t="s">
         <v>59</v>
@@ -29994,7 +29996,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="968" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>762</v>
       </c>
@@ -30021,7 +30023,7 @@
         <v>42859</v>
       </c>
     </row>
-    <row r="969" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B969" t="s">
         <v>1289</v>
       </c>
@@ -30045,7 +30047,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="970" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B970" t="s">
         <v>995</v>
       </c>
@@ -30069,7 +30071,7 @@
         <v>42984</v>
       </c>
     </row>
-    <row r="971" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A971">
         <v>659</v>
       </c>
@@ -30096,7 +30098,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="972" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>660</v>
       </c>
@@ -30129,7 +30131,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="973" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A973">
         <v>777</v>
       </c>
@@ -30156,7 +30158,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="974" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A974">
         <v>738</v>
       </c>
@@ -30183,7 +30185,7 @@
         <v>42817</v>
       </c>
     </row>
-    <row r="975" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B975" t="s">
         <v>695</v>
       </c>
@@ -30207,7 +30209,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="976" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A976">
         <v>727</v>
       </c>
@@ -30234,7 +30236,7 @@
         <v>42859</v>
       </c>
     </row>
-    <row r="977" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B977" t="s">
         <v>231</v>
       </c>
@@ -30258,7 +30260,7 @@
         <v>42843</v>
       </c>
     </row>
-    <row r="978" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A978">
         <v>663</v>
       </c>
@@ -30285,7 +30287,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="979" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A979">
         <v>729</v>
       </c>
@@ -30312,7 +30314,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="980" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A980">
         <v>668</v>
       </c>
@@ -30339,7 +30341,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="981" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B981" t="s">
         <v>91</v>
       </c>
@@ -30363,7 +30365,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="982" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>661</v>
       </c>
@@ -30390,7 +30392,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="983" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>685</v>
       </c>
@@ -30420,7 +30422,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="984" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>695</v>
       </c>
@@ -30447,7 +30449,7 @@
         <v>42849</v>
       </c>
     </row>
-    <row r="985" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B985" t="s">
         <v>1283</v>
       </c>
@@ -30471,7 +30473,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="986" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B986" t="s">
         <v>65</v>
       </c>
@@ -30495,7 +30497,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="987" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B987" t="s">
         <v>54</v>
       </c>
@@ -30519,7 +30521,7 @@
         <v>42984</v>
       </c>
     </row>
-    <row r="988" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B988" t="s">
         <v>91</v>
       </c>
@@ -30543,7 +30545,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="989" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B989" t="s">
         <v>1285</v>
       </c>
@@ -30567,7 +30569,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="990" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B990" t="s">
         <v>1287</v>
       </c>
@@ -30591,7 +30593,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="991" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>739</v>
       </c>
@@ -30618,7 +30620,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="992" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A992">
         <v>662</v>
       </c>
@@ -30651,7 +30653,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="993" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A993" s="5"/>
       <c r="B993" s="5" t="s">
         <v>203</v>
@@ -30684,7 +30686,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="994" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B994" t="s">
         <v>739</v>
       </c>
@@ -30708,7 +30710,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="995" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B995" t="s">
         <v>304</v>
       </c>
@@ -30732,7 +30734,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="996" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>608</v>
       </c>
@@ -30759,7 +30761,7 @@
         <v>42411</v>
       </c>
     </row>
-    <row r="997" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B997" t="s">
         <v>460</v>
       </c>
@@ -30783,7 +30785,7 @@
         <v>41704</v>
       </c>
     </row>
-    <row r="998" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>53</v>
       </c>
@@ -30816,7 +30818,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="999" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B999" t="s">
         <v>61</v>
       </c>
@@ -30840,7 +30842,7 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="1000" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>113</v>
       </c>
@@ -30867,7 +30869,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1001" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1001" t="s">
         <v>306</v>
       </c>
@@ -30891,7 +30893,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="1002" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1002" t="s">
         <v>1349</v>
       </c>
@@ -30915,7 +30917,7 @@
         <v>42411</v>
       </c>
     </row>
-    <row r="1003" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1003">
         <v>689</v>
       </c>
@@ -30942,7 +30944,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="1004" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1004" t="s">
         <v>313</v>
       </c>
@@ -30966,7 +30968,7 @@
         <v>42953</v>
       </c>
     </row>
-    <row r="1005" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1005">
         <v>205</v>
       </c>
@@ -30993,7 +30995,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1006" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1006" t="s">
         <v>1342</v>
       </c>
@@ -31017,7 +31019,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1007" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1007">
         <v>509</v>
       </c>
@@ -31044,7 +31046,7 @@
         <v>42143</v>
       </c>
     </row>
-    <row r="1008" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1008" t="s">
         <v>1352</v>
       </c>
@@ -31068,7 +31070,7 @@
         <v>42872</v>
       </c>
     </row>
-    <row r="1009" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1009" t="s">
         <v>74</v>
       </c>
@@ -31092,7 +31094,7 @@
         <v>41739</v>
       </c>
     </row>
-    <row r="1010" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1010">
         <v>183</v>
       </c>
@@ -31125,7 +31127,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1011" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1011" t="s">
         <v>692</v>
       </c>
@@ -31149,7 +31151,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1012" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1012" t="s">
         <v>167</v>
       </c>
@@ -31173,7 +31175,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="1013" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1013" t="s">
         <v>91</v>
       </c>
@@ -31197,7 +31199,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1014" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1014">
         <v>218</v>
       </c>
@@ -31224,7 +31226,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1015" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1015" t="s">
         <v>196</v>
       </c>
@@ -31248,7 +31250,7 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="1016" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1016">
         <v>605</v>
       </c>
@@ -31275,7 +31277,7 @@
         <v>41704</v>
       </c>
     </row>
-    <row r="1017" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1017">
         <v>298</v>
       </c>
@@ -31302,7 +31304,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1018" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1018">
         <v>450</v>
       </c>
@@ -31329,7 +31331,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1019" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1019" t="s">
         <v>54</v>
       </c>
@@ -31359,7 +31361,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1020" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1020">
         <v>142</v>
       </c>
@@ -31386,7 +31388,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1021" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1021" t="s">
         <v>60</v>
       </c>
@@ -31410,7 +31412,7 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="1022" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1022">
         <v>432</v>
       </c>
@@ -31437,7 +31439,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1023" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1023">
         <v>154</v>
       </c>
@@ -31464,7 +31466,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1024" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1024" t="s">
         <v>1350</v>
       </c>
@@ -31488,7 +31490,7 @@
         <v>42411</v>
       </c>
     </row>
-    <row r="1025" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1025">
         <v>317</v>
       </c>
@@ -31521,7 +31523,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1026" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1026" t="s">
         <v>150</v>
       </c>
@@ -31545,7 +31547,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="1027" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1027" t="s">
         <v>1348</v>
       </c>
@@ -31569,7 +31571,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="1028" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1028" t="s">
         <v>227</v>
       </c>
@@ -31593,7 +31595,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1029" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1029" t="s">
         <v>914</v>
       </c>
@@ -31617,7 +31619,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1030" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1030" t="s">
         <v>741</v>
       </c>
@@ -31641,7 +31643,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="1031" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1031" t="s">
         <v>1344</v>
       </c>
@@ -31665,7 +31667,7 @@
         <v>41879</v>
       </c>
     </row>
-    <row r="1032" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1032" t="s">
         <v>80</v>
       </c>
@@ -31689,7 +31691,7 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="1033" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1033">
         <v>734</v>
       </c>
@@ -31716,7 +31718,7 @@
         <v>42060</v>
       </c>
     </row>
-    <row r="1034" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1034" t="s">
         <v>231</v>
       </c>
@@ -31740,7 +31742,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="1035" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1035">
         <v>433</v>
       </c>
@@ -31767,7 +31769,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1036" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1036" t="s">
         <v>199</v>
       </c>
@@ -31791,7 +31793,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="1037" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1037" t="s">
         <v>194</v>
       </c>
@@ -31815,7 +31817,7 @@
         <v>42247</v>
       </c>
     </row>
-    <row r="1038" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1038">
         <v>69</v>
       </c>
@@ -31842,7 +31844,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1039" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1039">
         <v>34</v>
       </c>
@@ -31869,7 +31871,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1040" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1040" t="s">
         <v>304</v>
       </c>
@@ -31893,7 +31895,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="1041" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1041">
         <v>508</v>
       </c>
@@ -31920,7 +31922,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="1042" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1042" t="s">
         <v>533</v>
       </c>
@@ -31944,7 +31946,7 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="1043" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1043" t="s">
         <v>953</v>
       </c>
@@ -31974,7 +31976,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1044" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1044" t="s">
         <v>1351</v>
       </c>
@@ -31998,7 +32000,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="1045" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1045" t="s">
         <v>1065</v>
       </c>
@@ -32022,7 +32024,7 @@
         <v>42060</v>
       </c>
     </row>
-    <row r="1046" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1046">
         <v>431</v>
       </c>
@@ -32049,7 +32051,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1047" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1047">
         <v>83</v>
       </c>
@@ -32082,7 +32084,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1048" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1048">
         <v>136</v>
       </c>
@@ -32109,7 +32111,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1049" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1049">
         <v>137</v>
       </c>
@@ -32136,7 +32138,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1050" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1050" s="5">
         <v>222</v>
       </c>
@@ -32168,7 +32170,7 @@
         <v>41585</v>
       </c>
     </row>
-    <row r="1051" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1051" s="5">
         <v>54</v>
       </c>
@@ -32200,7 +32202,7 @@
       </c>
       <c r="M1051" s="6"/>
     </row>
-    <row r="1052" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1052" s="5">
         <v>299</v>
       </c>
@@ -32232,7 +32234,7 @@
       </c>
       <c r="M1052" s="6"/>
     </row>
-    <row r="1053" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1053" s="5">
         <v>68</v>
       </c>
@@ -32260,7 +32262,7 @@
         <v>41585</v>
       </c>
     </row>
-    <row r="1054" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1054" s="5">
         <v>84</v>
       </c>
@@ -32288,7 +32290,7 @@
       <c r="L1054" s="6"/>
       <c r="M1054" s="6"/>
     </row>
-    <row r="1055" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1055" s="5">
         <v>214</v>
       </c>
@@ -32316,7 +32318,7 @@
       <c r="L1055" s="6"/>
       <c r="M1055" s="6"/>
     </row>
-    <row r="1056" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1056" s="5">
         <v>275</v>
       </c>
@@ -32344,7 +32346,7 @@
       <c r="L1056" s="6"/>
       <c r="M1056" s="6"/>
     </row>
-    <row r="1057" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1057" s="5">
         <v>12</v>
       </c>
@@ -32372,7 +32374,7 @@
       <c r="L1057" s="6"/>
       <c r="M1057" s="6"/>
     </row>
-    <row r="1058" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1058" s="5">
         <v>35</v>
       </c>
@@ -32400,7 +32402,7 @@
       <c r="L1058" s="6"/>
       <c r="M1058" s="6"/>
     </row>
-    <row r="1059" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1059" s="5">
         <v>32</v>
       </c>
@@ -32428,7 +32430,7 @@
       <c r="L1059" s="6"/>
       <c r="M1059" s="6"/>
     </row>
-    <row r="1060" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1060" t="s">
         <v>423</v>
       </c>
@@ -32452,7 +32454,7 @@
         <v>42270</v>
       </c>
     </row>
-    <row r="1061" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1061" t="s">
         <v>692</v>
       </c>
@@ -32476,7 +32478,7 @@
         <v>42972</v>
       </c>
     </row>
-    <row r="1062" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1062" t="s">
         <v>299</v>
       </c>
@@ -32500,7 +32502,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="1063" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1063" t="s">
         <v>44</v>
       </c>
@@ -32524,7 +32526,7 @@
         <v>41889</v>
       </c>
     </row>
-    <row r="1064" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1064" t="s">
         <v>44</v>
       </c>
@@ -32548,7 +32550,7 @@
         <v>42963</v>
       </c>
     </row>
-    <row r="1065" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1065">
         <v>276</v>
       </c>
@@ -32578,7 +32580,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1066" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1066" t="s">
         <v>304</v>
       </c>
@@ -32602,7 +32604,7 @@
         <v>41726</v>
       </c>
     </row>
-    <row r="1067" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1067" t="s">
         <v>1389</v>
       </c>
@@ -32626,7 +32628,7 @@
         <v>41464</v>
       </c>
     </row>
-    <row r="1068" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1068">
         <v>158</v>
       </c>
@@ -32656,7 +32658,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1069" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1069" t="s">
         <v>741</v>
       </c>
@@ -32680,7 +32682,7 @@
         <v>42297</v>
       </c>
     </row>
-    <row r="1070" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1070" t="s">
         <v>59</v>
       </c>
@@ -32704,7 +32706,7 @@
         <v>41381</v>
       </c>
     </row>
-    <row r="1071" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1071">
         <v>152</v>
       </c>
@@ -32737,7 +32739,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1072" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1072">
         <v>243</v>
       </c>
@@ -32767,7 +32769,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1073" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1073">
         <v>151</v>
       </c>
@@ -32797,7 +32799,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1074" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1074">
         <v>67</v>
       </c>
@@ -32827,7 +32829,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1075" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1075">
         <v>162</v>
       </c>
@@ -32854,7 +32856,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1076" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1076" t="s">
         <v>1390</v>
       </c>
@@ -32881,7 +32883,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1077" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1077" t="s">
         <v>1391</v>
       </c>
@@ -32905,7 +32907,7 @@
         <v>41415</v>
       </c>
     </row>
-    <row r="1078" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1078">
         <v>175</v>
       </c>
@@ -32935,7 +32937,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1079" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1079">
         <v>173</v>
       </c>
@@ -32962,7 +32964,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1080" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1080" t="s">
         <v>410</v>
       </c>
@@ -32986,7 +32988,7 @@
         <v>42972</v>
       </c>
     </row>
-    <row r="1081" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1081" t="s">
         <v>1398</v>
       </c>
@@ -33010,7 +33012,7 @@
         <v>42501</v>
       </c>
     </row>
-    <row r="1082" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1082" t="s">
         <v>151</v>
       </c>
@@ -33037,7 +33039,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1083" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1083" t="s">
         <v>1392</v>
       </c>
@@ -33061,7 +33063,7 @@
         <v>41372</v>
       </c>
     </row>
-    <row r="1084" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1084" t="s">
         <v>24</v>
       </c>
@@ -33085,7 +33087,7 @@
         <v>41378</v>
       </c>
     </row>
-    <row r="1085" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1085" t="s">
         <v>400</v>
       </c>
@@ -33109,7 +33111,7 @@
         <v>42963</v>
       </c>
     </row>
-    <row r="1086" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1086" t="s">
         <v>1393</v>
       </c>
@@ -33133,7 +33135,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1087" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1087" t="s">
         <v>144</v>
       </c>
@@ -33157,7 +33159,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="1088" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1088" t="s">
         <v>1395</v>
       </c>
@@ -33181,7 +33183,7 @@
         <v>42963</v>
       </c>
     </row>
-    <row r="1089" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1089" t="s">
         <v>231</v>
       </c>
@@ -33205,7 +33207,7 @@
         <v>41939</v>
       </c>
     </row>
-    <row r="1090" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1090" t="s">
         <v>533</v>
       </c>
@@ -33229,7 +33231,7 @@
         <v>42423</v>
       </c>
     </row>
-    <row r="1091" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1091" t="s">
         <v>1400</v>
       </c>
@@ -33253,7 +33255,7 @@
         <v>42793</v>
       </c>
     </row>
-    <row r="1092" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1092">
         <v>131</v>
       </c>
@@ -33283,7 +33285,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1093" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1093">
         <v>150</v>
       </c>
@@ -33313,7 +33315,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1094" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1094" t="s">
         <v>306</v>
       </c>
@@ -33337,7 +33339,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1095" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1095">
         <v>190</v>
       </c>
@@ -33364,7 +33366,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1096" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1096" t="s">
         <v>1394</v>
       </c>
@@ -33388,7 +33390,7 @@
         <v>41707</v>
       </c>
     </row>
-    <row r="1097" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1097" t="s">
         <v>543</v>
       </c>
@@ -33412,7 +33414,7 @@
         <v>42823</v>
       </c>
     </row>
-    <row r="1098" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1098" s="5">
         <v>401</v>
       </c>
@@ -33440,7 +33442,7 @@
       <c r="L1098" s="6"/>
       <c r="M1098" s="6"/>
     </row>
-    <row r="1099" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1099" s="5">
         <v>448</v>
       </c>
@@ -33472,7 +33474,7 @@
       </c>
       <c r="M1099" s="6"/>
     </row>
-    <row r="1100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1100" s="5">
         <v>174</v>
       </c>
@@ -33505,13 +33507,7 @@
       <c r="M1100" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1100" xr:uid="{C2989F7E-E7E1-4B40-85C5-661F80FBA87E}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Ousrout"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N1100" xr:uid="{C2989F7E-E7E1-4B40-85C5-661F80FBA87E}"/>
   <sortState ref="A1060:M1096">
     <sortCondition ref="C1060:C1096"/>
   </sortState>

--- a/database/_legacy-data/players.xlsx
+++ b/database/_legacy-data/players.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="21390" windowHeight="9195" xr2:uid="{97FE6691-1362-4054-BF3C-CF397563C238}"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="21390" windowHeight="9195" xr2:uid="{97FE6691-1362-4054-BF3C-CF397563C238}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
@@ -4662,13 +4662,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737A9FD3-37A7-4FE0-A493-A330F7C34BDB}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N1100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B314" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A337" sqref="A337"/>
+      <selection pane="bottomRight" activeCell="A729" sqref="A729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4727,7 +4728,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>726</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>72</v>
       </c>
@@ -4780,7 +4781,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>490</v>
       </c>
@@ -4808,7 +4809,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>255</v>
       </c>
@@ -4836,7 +4837,7 @@
         <v>42439</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>737</v>
       </c>
@@ -4864,7 +4865,7 @@
         <v>42485</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>404</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>73</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>42923</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>378</v>
       </c>
@@ -4950,7 +4951,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>334</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -5008,7 +5009,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -5033,7 +5034,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>772</v>
       </c>
@@ -5060,7 +5061,7 @@
         <v>43012</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>635</v>
       </c>
@@ -5088,7 +5089,7 @@
         <v>42537</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>567</v>
       </c>
@@ -5116,7 +5117,7 @@
         <v>42110</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>44</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>42618</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>56</v>
       </c>
@@ -5166,7 +5167,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>320</v>
       </c>
@@ -5194,7 +5195,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>58</v>
       </c>
@@ -5219,7 +5220,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>516</v>
       </c>
@@ -5247,7 +5248,7 @@
         <v>42395</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>74</v>
       </c>
@@ -5272,7 +5273,7 @@
         <v>43021</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>613</v>
       </c>
@@ -5300,7 +5301,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>256</v>
       </c>
@@ -5328,7 +5329,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>377</v>
       </c>
@@ -5356,7 +5357,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>263</v>
       </c>
@@ -5389,7 +5390,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>436</v>
       </c>
@@ -5417,7 +5418,7 @@
         <v>42212</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>62</v>
       </c>
@@ -5442,7 +5443,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -5467,7 +5468,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>572</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>41703</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>617</v>
       </c>
@@ -5523,7 +5524,7 @@
         <v>42276</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>39</v>
       </c>
@@ -5548,7 +5549,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>482</v>
       </c>
@@ -5576,7 +5577,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>40</v>
       </c>
@@ -5601,7 +5602,7 @@
         <v>42219</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>614</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>67</v>
       </c>
@@ -5654,7 +5655,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>254</v>
       </c>
@@ -5687,7 +5688,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>352</v>
       </c>
@@ -5720,7 +5721,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>515</v>
       </c>
@@ -5748,7 +5749,7 @@
         <v>41827</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>54</v>
       </c>
@@ -5773,7 +5774,7 @@
         <v>41659</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>335</v>
       </c>
@@ -5806,7 +5807,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>285</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>333</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>89</v>
       </c>
@@ -5895,7 +5896,7 @@
         <v>43012</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>91</v>
       </c>
@@ -5919,7 +5920,7 @@
         <v>43016</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>619</v>
       </c>
@@ -5947,7 +5948,7 @@
         <v>41844</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>161</v>
       </c>
@@ -5971,7 +5972,7 @@
         <v>42052</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>302</v>
       </c>
@@ -6004,7 +6005,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>326</v>
       </c>
@@ -6031,7 +6032,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>135</v>
       </c>
@@ -6055,7 +6056,7 @@
         <v>42255</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>458</v>
       </c>
@@ -6082,7 +6083,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>137</v>
       </c>
@@ -6106,7 +6107,7 @@
         <v>42087</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>500</v>
       </c>
@@ -6133,7 +6134,7 @@
         <v>42289</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>536</v>
       </c>
@@ -6160,7 +6161,7 @@
         <v>42052</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>128</v>
       </c>
@@ -6184,7 +6185,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>139</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>41884</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>140</v>
       </c>
@@ -6232,7 +6233,7 @@
         <v>41683</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>259</v>
       </c>
@@ -6259,7 +6260,7 @@
         <v>41683</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>435</v>
       </c>
@@ -6286,7 +6287,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>633</v>
       </c>
@@ -6313,7 +6314,7 @@
         <v>42530</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>296</v>
       </c>
@@ -6340,7 +6341,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>629</v>
       </c>
@@ -6367,7 +6368,7 @@
         <v>41730</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>692</v>
       </c>
@@ -6394,7 +6395,7 @@
         <v>42833</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>144</v>
       </c>
@@ -6424,7 +6425,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>59</v>
       </c>
@@ -6448,7 +6449,7 @@
         <v>42255</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>628</v>
       </c>
@@ -6475,7 +6476,7 @@
         <v>42420</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>487</v>
       </c>
@@ -6502,7 +6503,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>146</v>
       </c>
@@ -6526,7 +6527,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>147</v>
       </c>
@@ -6550,7 +6551,7 @@
         <v>41840</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>696</v>
       </c>
@@ -6583,7 +6584,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>767</v>
       </c>
@@ -6610,7 +6611,7 @@
         <v>42877</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>759</v>
       </c>
@@ -6637,7 +6638,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>149</v>
       </c>
@@ -6667,7 +6668,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>151</v>
       </c>
@@ -6691,7 +6692,7 @@
         <v>42255</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>150</v>
       </c>
@@ -6715,7 +6716,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>152</v>
       </c>
@@ -6739,7 +6740,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>153</v>
       </c>
@@ -6763,7 +6764,7 @@
         <v>41840</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>154</v>
       </c>
@@ -6787,7 +6788,7 @@
         <v>41840</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>278</v>
       </c>
@@ -6814,7 +6815,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>143</v>
       </c>
@@ -6838,7 +6839,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>385</v>
       </c>
@@ -6865,7 +6866,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>143</v>
       </c>
@@ -6895,7 +6896,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>295</v>
       </c>
@@ -6922,7 +6923,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>303</v>
       </c>
@@ -6952,7 +6953,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>157</v>
       </c>
@@ -6976,7 +6977,7 @@
         <v>42141</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>54</v>
       </c>
@@ -7000,7 +7001,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>743</v>
       </c>
@@ -7027,7 +7028,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>158</v>
       </c>
@@ -7051,7 +7052,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>684</v>
       </c>
@@ -7078,7 +7079,7 @@
         <v>42813</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>351</v>
       </c>
@@ -7111,7 +7112,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>546</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>81</v>
       </c>
@@ -7165,7 +7166,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
         <v>216</v>
@@ -7194,7 +7195,7 @@
       <c r="M92" s="6"/>
       <c r="N92" s="5"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>194</v>
       </c>
@@ -7221,7 +7222,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>654</v>
       </c>
@@ -7248,7 +7249,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>354</v>
       </c>
@@ -7275,7 +7276,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>370</v>
       </c>
@@ -7302,7 +7303,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>11</v>
       </c>
@@ -7329,7 +7330,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>137</v>
       </c>
@@ -7356,7 +7357,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5" t="s">
         <v>65</v>
@@ -7389,7 +7390,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>620</v>
       </c>
@@ -7416,7 +7417,7 @@
         <v>42316</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>736</v>
       </c>
@@ -7443,7 +7444,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>525</v>
       </c>
@@ -7470,7 +7471,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>197</v>
       </c>
@@ -7494,7 +7495,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>735</v>
       </c>
@@ -7521,7 +7522,7 @@
         <v>42434</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>54</v>
       </c>
@@ -7545,7 +7546,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>472</v>
       </c>
@@ -7572,7 +7573,7 @@
         <v>41899</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>199</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>39</v>
       </c>
@@ -7626,7 +7627,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>205</v>
       </c>
@@ -7650,7 +7651,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>227</v>
       </c>
@@ -7674,7 +7675,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>485</v>
       </c>
@@ -7704,7 +7705,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>54</v>
       </c>
@@ -7728,7 +7729,7 @@
         <v>42467</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>218</v>
       </c>
@@ -7755,7 +7756,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>652</v>
       </c>
@@ -7782,7 +7783,7 @@
         <v>42747</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>465</v>
       </c>
@@ -7818,7 +7819,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>321</v>
       </c>
@@ -7848,7 +7849,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>63</v>
       </c>
@@ -7875,7 +7876,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>691</v>
       </c>
@@ -7902,7 +7903,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>634</v>
       </c>
@@ -7929,7 +7930,7 @@
         <v>42634</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>206</v>
       </c>
@@ -7953,7 +7954,7 @@
         <v>42616</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>38</v>
       </c>
@@ -7980,7 +7981,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>40</v>
       </c>
@@ -8004,7 +8005,7 @@
         <v>42515</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>99</v>
       </c>
@@ -8031,7 +8032,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>157</v>
       </c>
@@ -8058,7 +8059,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>194</v>
       </c>
@@ -8085,7 +8086,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>207</v>
       </c>
@@ -8109,7 +8110,7 @@
         <v>42472</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>153</v>
       </c>
@@ -8136,7 +8137,7 @@
         <v>40828</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>60</v>
       </c>
@@ -8163,7 +8164,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>10</v>
       </c>
@@ -8196,7 +8197,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>192</v>
       </c>
@@ -8229,7 +8230,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>156</v>
       </c>
@@ -8260,7 +8261,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>313</v>
       </c>
@@ -8284,7 +8285,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>124</v>
       </c>
@@ -8311,7 +8312,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>201</v>
       </c>
@@ -8335,7 +8336,7 @@
         <v>42499</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>586</v>
       </c>
@@ -8362,7 +8363,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>755</v>
       </c>
@@ -8389,7 +8390,7 @@
         <v>42806</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>156</v>
       </c>
@@ -8413,7 +8414,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>304</v>
       </c>
@@ -8437,7 +8438,7 @@
         <v>42895</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>139</v>
       </c>
@@ -8461,7 +8462,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>424</v>
       </c>
@@ -8488,7 +8489,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>754</v>
       </c>
@@ -8515,7 +8516,7 @@
         <v>42933</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>123</v>
       </c>
@@ -8542,7 +8543,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>122</v>
       </c>
@@ -8572,7 +8573,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>231</v>
       </c>
@@ -8602,7 +8603,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>295</v>
       </c>
@@ -8626,7 +8627,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="5" t="s">
         <v>43</v>
@@ -8659,7 +8660,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>155</v>
       </c>
@@ -8686,7 +8687,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>296</v>
       </c>
@@ -8710,7 +8711,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>314</v>
       </c>
@@ -8734,7 +8735,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>332</v>
       </c>
@@ -8767,7 +8768,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>486</v>
       </c>
@@ -8794,7 +8795,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>91</v>
       </c>
@@ -8818,7 +8819,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>42</v>
       </c>
@@ -8845,7 +8846,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>518</v>
       </c>
@@ -8872,7 +8873,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>750</v>
       </c>
@@ -8899,7 +8900,7 @@
         <v>42731</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>505</v>
       </c>
@@ -8926,7 +8927,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>74</v>
       </c>
@@ -8950,7 +8951,7 @@
         <v>42998</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>344</v>
       </c>
@@ -8977,7 +8978,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>43</v>
       </c>
@@ -9001,7 +9002,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>120</v>
       </c>
@@ -9028,7 +9029,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>317</v>
       </c>
@@ -9052,7 +9053,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>307</v>
       </c>
@@ -9076,7 +9077,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>300</v>
       </c>
@@ -9100,7 +9101,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="B164" s="5" t="s">
         <v>74</v>
@@ -9133,7 +9134,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>318</v>
       </c>
@@ -9157,7 +9158,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>502</v>
       </c>
@@ -9184,7 +9185,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>128</v>
       </c>
@@ -9208,7 +9209,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>203</v>
       </c>
@@ -9235,7 +9236,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>319</v>
       </c>
@@ -9259,7 +9260,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>302</v>
       </c>
@@ -9283,7 +9284,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>776</v>
       </c>
@@ -9310,7 +9311,7 @@
         <v>43034</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>43</v>
       </c>
@@ -9337,7 +9338,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>501</v>
       </c>
@@ -9364,7 +9365,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>640</v>
       </c>
@@ -9399,7 +9400,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>155</v>
       </c>
@@ -9423,7 +9424,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>504</v>
       </c>
@@ -9450,7 +9451,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>167</v>
       </c>
@@ -9477,7 +9478,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>24</v>
       </c>
@@ -9501,7 +9502,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>299</v>
       </c>
@@ -9525,7 +9526,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>320</v>
       </c>
@@ -9555,7 +9556,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>391</v>
       </c>
@@ -9582,7 +9583,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>189</v>
       </c>
@@ -9609,7 +9610,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>227</v>
       </c>
@@ -9633,7 +9634,7 @@
         <v>42926</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>315</v>
       </c>
@@ -9657,7 +9658,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>644</v>
       </c>
@@ -9684,7 +9685,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>73</v>
       </c>
@@ -9708,7 +9709,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>440</v>
       </c>
@@ -9735,7 +9736,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>121</v>
       </c>
@@ -9762,7 +9763,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>503</v>
       </c>
@@ -9789,7 +9790,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>709</v>
       </c>
@@ -9816,7 +9817,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>321</v>
       </c>
@@ -9840,7 +9841,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>322</v>
       </c>
@@ -9864,7 +9865,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>74</v>
       </c>
@@ -9888,7 +9889,7 @@
         <v>42731</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>573</v>
       </c>
@@ -9915,7 +9916,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>171</v>
       </c>
@@ -9942,7 +9943,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>719</v>
       </c>
@@ -9969,7 +9970,7 @@
         <v>42754</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>566</v>
       </c>
@@ -9996,7 +9997,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>585</v>
       </c>
@@ -10023,7 +10024,7 @@
         <v>42217</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>643</v>
       </c>
@@ -10050,7 +10051,7 @@
         <v>42411</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>24</v>
       </c>
@@ -10074,7 +10075,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>576</v>
       </c>
@@ -10101,7 +10102,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>748</v>
       </c>
@@ -10128,7 +10129,7 @@
         <v>42930</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>119</v>
       </c>
@@ -10155,7 +10156,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>155</v>
       </c>
@@ -10179,7 +10180,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>471</v>
       </c>
@@ -10206,7 +10207,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>459</v>
       </c>
@@ -10233,7 +10234,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>375</v>
       </c>
@@ -10257,7 +10258,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>196</v>
       </c>
@@ -10281,7 +10282,7 @@
         <v>42240</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>98</v>
       </c>
@@ -10314,7 +10315,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>65</v>
       </c>
@@ -10341,7 +10342,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>151</v>
       </c>
@@ -10368,7 +10369,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>158</v>
       </c>
@@ -10392,7 +10393,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>381</v>
       </c>
@@ -10419,7 +10420,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>388</v>
       </c>
@@ -10443,7 +10444,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>196</v>
       </c>
@@ -10467,7 +10468,7 @@
         <v>42501</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>200</v>
       </c>
@@ -10494,7 +10495,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>44</v>
       </c>
@@ -10518,7 +10519,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>158</v>
       </c>
@@ -10542,7 +10543,7 @@
         <v>42133</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>374</v>
       </c>
@@ -10566,7 +10567,7 @@
         <v>42446</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>97</v>
       </c>
@@ -10602,7 +10603,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>379</v>
       </c>
@@ -10626,7 +10627,7 @@
         <v>41932</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>9</v>
       </c>
@@ -10653,7 +10654,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>166</v>
       </c>
@@ -10680,7 +10681,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>368</v>
       </c>
@@ -10704,7 +10705,7 @@
         <v>42497</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
         <v>8</v>
       </c>
@@ -10743,7 +10744,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>293</v>
       </c>
@@ -10770,7 +10771,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>304</v>
       </c>
@@ -10794,7 +10795,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>381</v>
       </c>
@@ -10818,7 +10819,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>6</v>
       </c>
@@ -10845,7 +10846,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>200</v>
       </c>
@@ -10869,7 +10870,7 @@
         <v>42851</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>60</v>
       </c>
@@ -10893,7 +10894,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>228</v>
       </c>
@@ -10920,7 +10921,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>196</v>
       </c>
@@ -10947,7 +10948,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>7</v>
       </c>
@@ -10974,7 +10975,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>196</v>
       </c>
@@ -10998,7 +10999,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>71</v>
       </c>
@@ -11022,7 +11023,7 @@
         <v>42240</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>380</v>
       </c>
@@ -11049,7 +11050,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>141</v>
       </c>
@@ -11073,7 +11074,7 @@
         <v>42501</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>313</v>
       </c>
@@ -11097,7 +11098,7 @@
         <v>42726</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>60</v>
       </c>
@@ -11124,7 +11125,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>201</v>
       </c>
@@ -11151,7 +11152,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
         <v>165</v>
       </c>
@@ -11186,7 +11187,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>383</v>
       </c>
@@ -11210,7 +11211,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>369</v>
       </c>
@@ -11234,7 +11235,7 @@
         <v>42655</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>384</v>
       </c>
@@ -11258,7 +11259,7 @@
         <v>42283</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
         <v>386</v>
       </c>
@@ -11293,7 +11294,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
         <v>107</v>
       </c>
@@ -11328,7 +11329,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>229</v>
       </c>
@@ -11355,7 +11356,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>385</v>
       </c>
@@ -11382,7 +11383,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>89</v>
       </c>
@@ -11409,7 +11410,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>386</v>
       </c>
@@ -11433,7 +11434,7 @@
         <v>42289</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
         <v>379</v>
       </c>
@@ -11468,7 +11469,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
         <v>445</v>
       </c>
@@ -11503,7 +11504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>433</v>
       </c>
@@ -11527,7 +11528,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>404</v>
       </c>
@@ -11551,7 +11552,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>431</v>
       </c>
@@ -11575,7 +11576,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>447</v>
       </c>
@@ -11599,7 +11600,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>421</v>
       </c>
@@ -11623,7 +11624,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>707</v>
       </c>
@@ -11650,7 +11651,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>139</v>
       </c>
@@ -11674,7 +11675,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>706</v>
       </c>
@@ -11701,7 +11702,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>746</v>
       </c>
@@ -11728,7 +11729,7 @@
         <v>42926</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>757</v>
       </c>
@@ -11755,7 +11756,7 @@
         <v>42975</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>61</v>
       </c>
@@ -11779,7 +11780,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>408</v>
       </c>
@@ -11803,7 +11804,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>705</v>
       </c>
@@ -11830,7 +11831,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>708</v>
       </c>
@@ -11857,7 +11858,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>440</v>
       </c>
@@ -11881,7 +11882,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>669</v>
       </c>
@@ -11908,7 +11909,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>670</v>
       </c>
@@ -11935,7 +11936,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>299</v>
       </c>
@@ -11959,7 +11960,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>410</v>
       </c>
@@ -11983,7 +11984,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>675</v>
       </c>
@@ -12010,7 +12011,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>156</v>
       </c>
@@ -12034,7 +12035,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>747</v>
       </c>
@@ -12061,7 +12062,7 @@
         <v>42926</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>231</v>
       </c>
@@ -12085,7 +12086,7 @@
         <v>42747</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>418</v>
       </c>
@@ -12109,7 +12110,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>756</v>
       </c>
@@ -12136,7 +12137,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>745</v>
       </c>
@@ -12163,7 +12164,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>676</v>
       </c>
@@ -12190,7 +12191,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>715</v>
       </c>
@@ -12217,7 +12218,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>423</v>
       </c>
@@ -12241,7 +12242,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>744</v>
       </c>
@@ -12268,7 +12269,7 @@
         <v>42747</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>231</v>
       </c>
@@ -12295,7 +12296,7 @@
         <v>42845</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>142</v>
       </c>
@@ -12319,7 +12320,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>24</v>
       </c>
@@ -12343,7 +12344,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>141</v>
       </c>
@@ -12367,7 +12368,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>496</v>
       </c>
@@ -12394,7 +12395,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>296</v>
       </c>
@@ -12418,7 +12419,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>143</v>
       </c>
@@ -12442,7 +12443,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>449</v>
       </c>
@@ -12466,7 +12467,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>155</v>
       </c>
@@ -12490,7 +12491,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>89</v>
       </c>
@@ -12514,7 +12515,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>568</v>
       </c>
@@ -12541,7 +12542,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>24</v>
       </c>
@@ -12565,7 +12566,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>497</v>
       </c>
@@ -12592,7 +12593,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>60</v>
       </c>
@@ -12616,7 +12617,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>63</v>
       </c>
@@ -12640,7 +12641,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>89</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>499</v>
       </c>
@@ -12691,7 +12692,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>452</v>
       </c>
@@ -12715,7 +12716,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>570</v>
       </c>
@@ -12742,7 +12743,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>307</v>
       </c>
@@ -12766,7 +12767,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>87</v>
       </c>
@@ -12790,7 +12791,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>636</v>
       </c>
@@ -12817,7 +12818,7 @@
         <v>42530</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>498</v>
       </c>
@@ -12844,7 +12845,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
         <v>453</v>
       </c>
@@ -12868,7 +12869,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>457</v>
       </c>
@@ -12892,7 +12893,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>200</v>
       </c>
@@ -12916,7 +12917,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>375</v>
       </c>
@@ -12940,7 +12941,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>374</v>
       </c>
@@ -12964,7 +12965,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>156</v>
       </c>
@@ -12988,7 +12989,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>569</v>
       </c>
@@ -13015,7 +13016,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>63</v>
       </c>
@@ -13039,7 +13040,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>720</v>
       </c>
@@ -13066,7 +13067,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>520</v>
       </c>
@@ -13093,7 +13094,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>642</v>
       </c>
@@ -13120,7 +13121,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>24</v>
       </c>
@@ -13144,7 +13145,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>651</v>
       </c>
@@ -13171,7 +13172,7 @@
         <v>42394</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>693</v>
       </c>
@@ -13198,7 +13199,7 @@
         <v>42840</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>700</v>
       </c>
@@ -13225,7 +13226,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>771</v>
       </c>
@@ -13252,7 +13253,7 @@
         <v>42991</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>91</v>
       </c>
@@ -13276,7 +13277,7 @@
         <v>42799</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>766</v>
       </c>
@@ -13303,7 +13304,7 @@
         <v>42814</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>194</v>
       </c>
@@ -13327,7 +13328,7 @@
         <v>42921</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>135</v>
       </c>
@@ -13354,7 +13355,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>476</v>
       </c>
@@ -13387,7 +13388,7 @@
         <v>41910</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>701</v>
       </c>
@@ -13414,7 +13415,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>533</v>
       </c>
@@ -13441,7 +13442,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>492</v>
       </c>
@@ -13474,7 +13475,7 @@
         <v>41680</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>532</v>
       </c>
@@ -13501,7 +13502,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>52</v>
       </c>
@@ -13534,7 +13535,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>624</v>
       </c>
@@ -13561,7 +13562,7 @@
         <v>42424</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>703</v>
       </c>
@@ -13588,7 +13589,7 @@
         <v>42433</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>125</v>
       </c>
@@ -13615,7 +13616,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>779</v>
       </c>
@@ -13642,7 +13643,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>537</v>
       </c>
@@ -13666,7 +13667,7 @@
         <v>42429</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>368</v>
       </c>
@@ -13690,7 +13691,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>623</v>
       </c>
@@ -13717,7 +13718,7 @@
         <v>42061</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>353</v>
       </c>
@@ -13744,7 +13745,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>51</v>
       </c>
@@ -13771,7 +13772,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
         <v>534</v>
       </c>
@@ -13795,7 +13796,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
         <v>65</v>
       </c>
@@ -13819,7 +13820,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>193</v>
       </c>
@@ -13849,7 +13850,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>412</v>
       </c>
@@ -13882,7 +13883,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>528</v>
       </c>
@@ -13909,7 +13910,7 @@
         <v>42410</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>70</v>
       </c>
@@ -13936,7 +13937,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>575</v>
       </c>
@@ -13963,7 +13964,7 @@
         <v>42304</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>58</v>
       </c>
@@ -13990,7 +13991,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>404</v>
       </c>
@@ -14014,7 +14015,7 @@
         <v>41722</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>702</v>
       </c>
@@ -14041,7 +14042,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>144</v>
       </c>
@@ -14068,7 +14069,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>527</v>
       </c>
@@ -14095,7 +14096,7 @@
         <v>42415</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>200</v>
       </c>
@@ -14119,7 +14120,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>528</v>
       </c>
@@ -14146,7 +14147,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>57</v>
       </c>
@@ -14173,7 +14174,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
         <v>379</v>
       </c>
@@ -14197,7 +14198,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>308</v>
       </c>
@@ -14224,7 +14225,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>61</v>
       </c>
@@ -14248,7 +14249,7 @@
         <v>41934</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>180</v>
       </c>
@@ -14275,7 +14276,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>530</v>
       </c>
@@ -14299,7 +14300,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>307</v>
       </c>
@@ -14326,7 +14327,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>87</v>
       </c>
@@ -14353,7 +14354,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>252</v>
       </c>
@@ -14380,7 +14381,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>674</v>
       </c>
@@ -14407,7 +14408,7 @@
         <v>42774</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>72</v>
       </c>
@@ -14434,7 +14435,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>664</v>
       </c>
@@ -14461,7 +14462,7 @@
         <v>41746</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>181</v>
       </c>
@@ -14488,7 +14489,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
         <v>302</v>
       </c>
@@ -14512,7 +14513,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A370" s="5">
         <v>71</v>
       </c>
@@ -14545,7 +14546,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
         <v>209</v>
       </c>
@@ -14578,7 +14579,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
         <v>210</v>
       </c>
@@ -14613,7 +14614,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
         <v>592</v>
       </c>
@@ -14637,7 +14638,7 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
         <v>196</v>
       </c>
@@ -14661,7 +14662,7 @@
         <v>36011</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
         <v>40</v>
       </c>
@@ -14685,7 +14686,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
         <v>87</v>
       </c>
@@ -14709,7 +14710,7 @@
         <v>42396</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>621</v>
       </c>
@@ -14736,7 +14737,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
         <v>61</v>
       </c>
@@ -14760,7 +14761,7 @@
         <v>42975</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
         <v>601</v>
       </c>
@@ -14784,7 +14785,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
         <v>583</v>
       </c>
@@ -14808,7 +14809,7 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
         <v>304</v>
       </c>
@@ -14832,7 +14833,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
         <v>590</v>
       </c>
@@ -14856,7 +14857,7 @@
         <v>42472</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
         <v>65</v>
       </c>
@@ -14883,7 +14884,7 @@
         <v>42519</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>741</v>
       </c>
@@ -14910,7 +14911,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>231</v>
       </c>
@@ -14934,7 +14935,7 @@
         <v>42797</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
         <v>199</v>
       </c>
@@ -14958,7 +14959,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
         <v>582</v>
       </c>
@@ -14982,7 +14983,7 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>758</v>
       </c>
@@ -15009,7 +15010,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
         <v>608</v>
       </c>
@@ -15033,7 +15034,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
         <v>584</v>
       </c>
@@ -15057,7 +15058,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
         <v>580</v>
       </c>
@@ -15081,7 +15082,7 @@
         <v>42388</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
         <v>64</v>
       </c>
@@ -15105,7 +15106,7 @@
         <v>42797</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
         <v>577</v>
       </c>
@@ -15129,7 +15130,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>563</v>
       </c>
@@ -15156,7 +15157,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
         <v>431</v>
       </c>
@@ -15180,7 +15181,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
         <v>293</v>
       </c>
@@ -15204,7 +15205,7 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
         <v>53</v>
       </c>
@@ -15228,7 +15229,7 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
         <v>606</v>
       </c>
@@ -15252,7 +15253,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
         <v>559</v>
       </c>
@@ -15276,7 +15277,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
         <v>54</v>
       </c>
@@ -15300,7 +15301,7 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>770</v>
       </c>
@@ -15327,7 +15328,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
         <v>612</v>
       </c>
@@ -15351,7 +15352,7 @@
         <v>42797</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
         <v>579</v>
       </c>
@@ -15375,7 +15376,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
         <v>585</v>
       </c>
@@ -15399,7 +15400,7 @@
         <v>42975</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>495</v>
       </c>
@@ -15426,7 +15427,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>564</v>
       </c>
@@ -15453,7 +15454,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
         <v>60</v>
       </c>
@@ -15477,7 +15478,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>649</v>
       </c>
@@ -15504,7 +15505,7 @@
         <v>42793</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
         <v>197</v>
       </c>
@@ -15528,7 +15529,7 @@
         <v>42615</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
         <v>299</v>
       </c>
@@ -15552,7 +15553,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
         <v>567</v>
       </c>
@@ -15579,7 +15580,7 @@
         <v>42519</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
         <v>143</v>
       </c>
@@ -15603,7 +15604,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
         <v>40</v>
       </c>
@@ -15627,7 +15628,7 @@
         <v>42891</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>641</v>
       </c>
@@ -15657,7 +15658,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
         <v>194</v>
       </c>
@@ -15681,7 +15682,7 @@
         <v>42578</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
         <v>581</v>
       </c>
@@ -15708,7 +15709,7 @@
         <v>42519</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>653</v>
       </c>
@@ -15735,7 +15736,7 @@
         <v>42797</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
         <v>139</v>
       </c>
@@ -15759,7 +15760,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>574</v>
       </c>
@@ -15786,7 +15787,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>672</v>
       </c>
@@ -15813,7 +15814,7 @@
         <v>42616</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
         <v>193</v>
       </c>
@@ -15837,7 +15838,7 @@
         <v>42388</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>526</v>
       </c>
@@ -15867,7 +15868,7 @@
         <v>42519</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
         <v>141</v>
       </c>
@@ -15891,7 +15892,7 @@
         <v>42434</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>622</v>
       </c>
@@ -15918,7 +15919,7 @@
         <v>42443</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>494</v>
       </c>
@@ -15945,7 +15946,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
         <v>525</v>
       </c>
@@ -15969,7 +15970,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
         <v>60</v>
       </c>
@@ -15993,7 +15994,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
         <v>577</v>
       </c>
@@ -16017,7 +16018,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
         <v>84</v>
       </c>
@@ -16041,7 +16042,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
         <v>620</v>
       </c>
@@ -16065,7 +16066,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
         <v>622</v>
       </c>
@@ -16089,7 +16090,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>548</v>
       </c>
@@ -16116,7 +16117,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
         <v>302</v>
       </c>
@@ -16140,7 +16141,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>710</v>
       </c>
@@ -16167,7 +16168,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
         <v>40</v>
       </c>
@@ -16191,7 +16192,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
         <v>162</v>
       </c>
@@ -16215,7 +16216,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
         <v>65</v>
       </c>
@@ -16239,7 +16240,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
         <v>71</v>
       </c>
@@ -16263,7 +16264,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
         <v>199</v>
       </c>
@@ -16287,7 +16288,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
         <v>320</v>
       </c>
@@ -16311,7 +16312,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
         <v>197</v>
       </c>
@@ -16335,7 +16336,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
         <v>320</v>
       </c>
@@ -16359,7 +16360,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
         <v>642</v>
       </c>
@@ -16383,7 +16384,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
         <v>644</v>
       </c>
@@ -16407,7 +16408,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
         <v>306</v>
       </c>
@@ -16431,7 +16432,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
         <v>74</v>
       </c>
@@ -16455,7 +16456,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B447" t="s">
         <v>649</v>
       </c>
@@ -16479,7 +16480,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
         <v>631</v>
       </c>
@@ -16503,7 +16504,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
         <v>315</v>
       </c>
@@ -16527,7 +16528,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B450" t="s">
         <v>633</v>
       </c>
@@ -16551,7 +16552,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B451" t="s">
         <v>145</v>
       </c>
@@ -16575,7 +16576,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B452" t="s">
         <v>636</v>
       </c>
@@ -16599,7 +16600,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
         <v>604</v>
       </c>
@@ -16623,7 +16624,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B454" t="s">
         <v>162</v>
       </c>
@@ -16647,7 +16648,7 @@
         <v>41744</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B455" t="s">
         <v>410</v>
       </c>
@@ -16671,7 +16672,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>185</v>
       </c>
@@ -16698,7 +16699,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>233</v>
       </c>
@@ -16725,7 +16726,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B458" t="s">
         <v>137</v>
       </c>
@@ -16749,7 +16750,7 @@
         <v>42865</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B459" t="s">
         <v>61</v>
       </c>
@@ -16773,7 +16774,7 @@
         <v>42759</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
         <v>302</v>
       </c>
@@ -16797,7 +16798,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>481</v>
       </c>
@@ -16824,7 +16825,7 @@
         <v>42038</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B462" t="s">
         <v>132</v>
       </c>
@@ -16848,7 +16849,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>187</v>
       </c>
@@ -16875,7 +16876,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B464" t="s">
         <v>374</v>
       </c>
@@ -16899,7 +16900,7 @@
         <v>41898</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B465" t="s">
         <v>140</v>
       </c>
@@ -16923,7 +16924,7 @@
         <v>42464</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>188</v>
       </c>
@@ -16956,7 +16957,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>340</v>
       </c>
@@ -16983,7 +16984,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>265</v>
       </c>
@@ -17010,7 +17011,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
         <v>689</v>
       </c>
@@ -17034,7 +17035,7 @@
         <v>42270</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
         <v>690</v>
       </c>
@@ -17064,7 +17065,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>547</v>
       </c>
@@ -17091,7 +17092,7 @@
         <v>42297</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>76</v>
       </c>
@@ -17118,7 +17119,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
         <v>293</v>
       </c>
@@ -17142,7 +17143,7 @@
         <v>41845</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B474" t="s">
         <v>691</v>
       </c>
@@ -17166,7 +17167,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>232</v>
       </c>
@@ -17193,7 +17194,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B476" t="s">
         <v>695</v>
       </c>
@@ -17217,7 +17218,7 @@
         <v>42872</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B477" t="s">
         <v>692</v>
       </c>
@@ -17241,7 +17242,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B478" t="s">
         <v>143</v>
       </c>
@@ -17265,7 +17266,7 @@
         <v>42629</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B479" t="s">
         <v>145</v>
       </c>
@@ -17289,7 +17290,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>79</v>
       </c>
@@ -17316,7 +17317,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B481" t="s">
         <v>194</v>
       </c>
@@ -17340,7 +17341,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>524</v>
       </c>
@@ -17367,7 +17368,7 @@
         <v>42247</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B483" t="s">
         <v>145</v>
       </c>
@@ -17391,7 +17392,7 @@
         <v>42627</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B484" t="s">
         <v>193</v>
       </c>
@@ -17415,7 +17416,7 @@
         <v>42396</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>618</v>
       </c>
@@ -17442,7 +17443,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B486" t="s">
         <v>141</v>
       </c>
@@ -17466,7 +17467,7 @@
         <v>42033</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B487" t="s">
         <v>70</v>
       </c>
@@ -17490,7 +17491,7 @@
         <v>42167</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>132</v>
       </c>
@@ -17523,7 +17524,7 @@
         <v>42244</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>425</v>
       </c>
@@ -17556,7 +17557,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B490" t="s">
         <v>80</v>
       </c>
@@ -17580,7 +17581,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>77</v>
       </c>
@@ -17607,7 +17608,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B492" t="s">
         <v>82</v>
       </c>
@@ -17631,7 +17632,7 @@
         <v>42759</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>78</v>
       </c>
@@ -17658,7 +17659,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>186</v>
       </c>
@@ -17685,7 +17686,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>74</v>
       </c>
@@ -17712,7 +17713,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>264</v>
       </c>
@@ -17739,7 +17740,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>105</v>
       </c>
@@ -17766,7 +17767,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B498" t="s">
         <v>397</v>
       </c>
@@ -17790,7 +17791,7 @@
         <v>42771</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B499" t="s">
         <v>687</v>
       </c>
@@ -17814,7 +17815,7 @@
         <v>42872</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>73</v>
       </c>
@@ -17841,7 +17842,7 @@
         <v>42417</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>108</v>
       </c>
@@ -17868,7 +17869,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>179</v>
       </c>
@@ -17901,7 +17902,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B503" t="s">
         <v>793</v>
       </c>
@@ -17925,7 +17926,7 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>667</v>
       </c>
@@ -17952,7 +17953,7 @@
         <v>42689</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>387</v>
       </c>
@@ -17982,7 +17983,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>357</v>
       </c>
@@ -18012,7 +18013,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>731</v>
       </c>
@@ -18039,7 +18040,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>630</v>
       </c>
@@ -18069,7 +18070,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>713</v>
       </c>
@@ -18096,7 +18097,7 @@
         <v>42838</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B510" t="s">
         <v>78</v>
       </c>
@@ -18123,7 +18124,7 @@
         <v>42611</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B511" t="s">
         <v>299</v>
       </c>
@@ -18150,7 +18151,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>420</v>
       </c>
@@ -18177,7 +18178,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B513" t="s">
         <v>133</v>
       </c>
@@ -18204,7 +18205,7 @@
         <v>42678</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B514" t="s">
         <v>784</v>
       </c>
@@ -18231,7 +18232,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B515" t="s">
         <v>785</v>
       </c>
@@ -18258,7 +18259,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B516" t="s">
         <v>738</v>
       </c>
@@ -18285,7 +18286,7 @@
         <v>42619</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>582</v>
       </c>
@@ -18312,7 +18313,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B518" t="s">
         <v>84</v>
       </c>
@@ -18336,7 +18337,7 @@
         <v>42823</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>558</v>
       </c>
@@ -18363,7 +18364,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>761</v>
       </c>
@@ -18390,7 +18391,7 @@
         <v>42815</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B521" t="s">
         <v>80</v>
       </c>
@@ -18414,7 +18415,7 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>438</v>
       </c>
@@ -18441,7 +18442,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>161</v>
       </c>
@@ -18468,7 +18469,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B524" t="s">
         <v>196</v>
       </c>
@@ -18492,7 +18493,7 @@
         <v>42784</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>212</v>
       </c>
@@ -18522,7 +18523,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B526" t="s">
         <v>740</v>
       </c>
@@ -18546,7 +18547,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>765</v>
       </c>
@@ -18573,7 +18574,7 @@
         <v>42838</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>666</v>
       </c>
@@ -18600,7 +18601,7 @@
         <v>42607</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B529" t="s">
         <v>162</v>
       </c>
@@ -18627,7 +18628,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>583</v>
       </c>
@@ -18657,7 +18658,7 @@
         <v>42619</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>698</v>
       </c>
@@ -18684,7 +18685,7 @@
         <v>42815</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B532" t="s">
         <v>753</v>
       </c>
@@ -18708,7 +18709,7 @@
         <v>43034</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>519</v>
       </c>
@@ -18735,7 +18736,7 @@
         <v>41797</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B534" t="s">
         <v>750</v>
       </c>
@@ -18762,7 +18763,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A535" s="5">
         <v>109</v>
       </c>
@@ -18799,7 +18800,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>4</v>
       </c>
@@ -18826,7 +18827,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B537" t="s">
         <v>743</v>
       </c>
@@ -18853,7 +18854,7 @@
         <v>42699</v>
       </c>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>382</v>
       </c>
@@ -18883,7 +18884,7 @@
         <v>42458</v>
       </c>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B539" t="s">
         <v>744</v>
       </c>
@@ -18910,7 +18911,7 @@
         <v>42499</v>
       </c>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>532</v>
       </c>
@@ -18937,7 +18938,7 @@
         <v>42423</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B541" t="s">
         <v>745</v>
       </c>
@@ -18961,7 +18962,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B542" t="s">
         <v>43</v>
       </c>
@@ -18988,7 +18989,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>226</v>
       </c>
@@ -19015,7 +19016,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B544" t="s">
         <v>752</v>
       </c>
@@ -19039,7 +19040,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>419</v>
       </c>
@@ -19069,7 +19070,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>775</v>
       </c>
@@ -19096,7 +19097,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B547" t="s">
         <v>768</v>
       </c>
@@ -19123,7 +19124,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B548" t="s">
         <v>795</v>
       </c>
@@ -19147,7 +19148,7 @@
         <v>42979</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>557</v>
       </c>
@@ -19174,7 +19175,7 @@
         <v>42024</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B550" t="s">
         <v>144</v>
       </c>
@@ -19201,7 +19202,7 @@
         <v>42499</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>556</v>
       </c>
@@ -19228,7 +19229,7 @@
         <v>42094</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>773</v>
       </c>
@@ -19255,7 +19256,7 @@
         <v>42938</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>714</v>
       </c>
@@ -19282,7 +19283,7 @@
         <v>42812</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>91</v>
       </c>
@@ -19312,7 +19313,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>418</v>
       </c>
@@ -19339,7 +19340,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B556" t="s">
         <v>386</v>
       </c>
@@ -19363,7 +19364,7 @@
         <v>42939</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>774</v>
       </c>
@@ -19390,7 +19391,7 @@
         <v>42934</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B558" t="s">
         <v>770</v>
       </c>
@@ -19417,7 +19418,7 @@
         <v>42682</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B559" t="s">
         <v>747</v>
       </c>
@@ -19444,7 +19445,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>555</v>
       </c>
@@ -19471,7 +19472,7 @@
         <v>41761</v>
       </c>
     </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>760</v>
       </c>
@@ -19498,7 +19499,7 @@
         <v>42979</v>
       </c>
     </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>545</v>
       </c>
@@ -19525,7 +19526,7 @@
         <v>41949</v>
       </c>
     </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>645</v>
       </c>
@@ -19555,7 +19556,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>717</v>
       </c>
@@ -19585,7 +19586,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B565" t="s">
         <v>757</v>
       </c>
@@ -19612,7 +19613,7 @@
         <v>42611</v>
       </c>
     </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B566" t="s">
         <v>82</v>
       </c>
@@ -19636,7 +19637,7 @@
         <v>42699</v>
       </c>
     </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>211</v>
       </c>
@@ -19663,7 +19664,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>677</v>
       </c>
@@ -19690,7 +19691,7 @@
         <v>42615</v>
       </c>
     </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B569" t="s">
         <v>200</v>
       </c>
@@ -19714,7 +19715,7 @@
         <v>42178</v>
       </c>
     </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B570" t="s">
         <v>749</v>
       </c>
@@ -19738,7 +19739,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B571" t="s">
         <v>773</v>
       </c>
@@ -19762,7 +19763,7 @@
         <v>42767</v>
       </c>
     </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B572" t="s">
         <v>60</v>
       </c>
@@ -19786,7 +19787,7 @@
         <v>42297</v>
       </c>
     </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A573" s="5">
         <v>3</v>
       </c>
@@ -19817,7 +19818,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A574" s="5">
         <v>258</v>
       </c>
@@ -19848,7 +19849,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A575" s="5">
         <v>398</v>
       </c>
@@ -19883,7 +19884,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A576" s="5">
         <v>241</v>
       </c>
@@ -19914,7 +19915,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A577" s="5">
         <v>56</v>
       </c>
@@ -19945,7 +19946,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A578" s="5">
         <v>392</v>
       </c>
@@ -19976,7 +19977,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A579" s="5">
         <v>36</v>
       </c>
@@ -20007,7 +20008,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A580" s="5">
         <v>169</v>
       </c>
@@ -20038,7 +20039,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A581" s="5">
         <v>93</v>
       </c>
@@ -20069,7 +20070,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A582" s="5">
         <v>75</v>
       </c>
@@ -20100,7 +20101,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A583" s="5">
         <v>235</v>
       </c>
@@ -20131,7 +20132,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A584" s="5">
         <v>168</v>
       </c>
@@ -20162,7 +20163,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A585" s="5">
         <v>309</v>
       </c>
@@ -20193,7 +20194,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A586" s="5">
         <v>145</v>
       </c>
@@ -20224,7 +20225,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A587" s="5">
         <v>139</v>
       </c>
@@ -20259,7 +20260,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A588" s="5">
         <v>236</v>
       </c>
@@ -20290,7 +20291,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A589" s="5">
         <v>5</v>
       </c>
@@ -20321,7 +20322,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A590" s="5">
         <v>37</v>
       </c>
@@ -20352,7 +20353,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A591" s="5">
         <v>202</v>
       </c>
@@ -20383,7 +20384,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B592" t="s">
         <v>24</v>
       </c>
@@ -20407,7 +20408,7 @@
         <v>41733</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B593" t="s">
         <v>604</v>
       </c>
@@ -20431,7 +20432,7 @@
         <v>41695</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A594" s="7">
         <v>611</v>
       </c>
@@ -20458,7 +20459,7 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A595" s="7">
         <v>289</v>
       </c>
@@ -20485,7 +20486,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A596" s="7">
         <v>477</v>
       </c>
@@ -20512,7 +20513,7 @@
         <v>41876</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A597" s="7">
         <v>290</v>
       </c>
@@ -20539,7 +20540,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B598" t="s">
         <v>843</v>
       </c>
@@ -20563,7 +20564,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>544</v>
       </c>
@@ -20590,7 +20591,7 @@
         <v>42397</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B600" t="s">
         <v>227</v>
       </c>
@@ -20614,7 +20615,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B601" t="s">
         <v>89</v>
       </c>
@@ -20638,7 +20639,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B602" t="s">
         <v>139</v>
       </c>
@@ -20662,7 +20663,7 @@
         <v>42072</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>338</v>
       </c>
@@ -20689,7 +20690,7 @@
         <v>41378</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>360</v>
       </c>
@@ -20716,7 +20717,7 @@
         <v>42517</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B605" t="s">
         <v>368</v>
       </c>
@@ -20740,7 +20741,7 @@
         <v>42628</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>358</v>
       </c>
@@ -20767,7 +20768,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>284</v>
       </c>
@@ -20794,7 +20795,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B608" t="s">
         <v>193</v>
       </c>
@@ -20821,7 +20822,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B609" t="s">
         <v>400</v>
       </c>
@@ -20845,7 +20846,7 @@
         <v>42628</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B610" t="s">
         <v>313</v>
       </c>
@@ -20869,7 +20870,7 @@
         <v>41381</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>599</v>
       </c>
@@ -20896,7 +20897,7 @@
         <v>42467</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>329</v>
       </c>
@@ -20923,7 +20924,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>397</v>
       </c>
@@ -20950,7 +20951,7 @@
         <v>41444</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>283</v>
       </c>
@@ -20977,7 +20978,7 @@
         <v>42548</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>463</v>
       </c>
@@ -21004,7 +21005,7 @@
         <v>41695</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>453</v>
       </c>
@@ -21031,7 +21032,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>361</v>
       </c>
@@ -21058,7 +21059,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>330</v>
       </c>
@@ -21085,7 +21086,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B619" t="s">
         <v>845</v>
       </c>
@@ -21109,7 +21110,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>742</v>
       </c>
@@ -21136,7 +21137,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B621" t="s">
         <v>194</v>
       </c>
@@ -21160,7 +21161,7 @@
         <v>42424</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B622" t="s">
         <v>842</v>
       </c>
@@ -21184,7 +21185,7 @@
         <v>41716</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B623" t="s">
         <v>857</v>
       </c>
@@ -21208,7 +21209,7 @@
         <v>42628</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>359</v>
       </c>
@@ -21235,7 +21236,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>716</v>
       </c>
@@ -21262,7 +21263,7 @@
         <v>42751</v>
       </c>
     </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>749</v>
       </c>
@@ -21289,7 +21290,7 @@
         <v>42817</v>
       </c>
     </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B627" t="s">
         <v>861</v>
       </c>
@@ -21313,7 +21314,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B628" t="s">
         <v>862</v>
       </c>
@@ -21337,7 +21338,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A629" s="5">
         <v>384</v>
       </c>
@@ -21372,7 +21373,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A630" s="5">
         <v>291</v>
       </c>
@@ -21407,7 +21408,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B631" t="s">
         <v>151</v>
       </c>
@@ -21434,7 +21435,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>454</v>
       </c>
@@ -21461,7 +21462,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B633" t="s">
         <v>900</v>
       </c>
@@ -21485,7 +21486,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B634" t="s">
         <v>218</v>
       </c>
@@ -21509,7 +21510,7 @@
         <v>42898</v>
       </c>
     </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>591</v>
       </c>
@@ -21536,7 +21537,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>466</v>
       </c>
@@ -21569,7 +21570,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B637" t="s">
         <v>139</v>
       </c>
@@ -21593,7 +21594,7 @@
         <v>42899</v>
       </c>
     </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B638" t="s">
         <v>74</v>
       </c>
@@ -21617,7 +21618,7 @@
         <v>41899</v>
       </c>
     </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B639" t="s">
         <v>901</v>
       </c>
@@ -21641,7 +21642,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:14" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B640" t="s">
         <v>143</v>
       </c>
@@ -21668,7 +21669,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B641" t="s">
         <v>43</v>
       </c>
@@ -21692,7 +21693,7 @@
         <v>42053</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B642" t="s">
         <v>60</v>
       </c>
@@ -21716,7 +21717,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B643" t="s">
         <v>901</v>
       </c>
@@ -21743,7 +21744,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B644" t="s">
         <v>136</v>
       </c>
@@ -21770,7 +21771,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B645" t="s">
         <v>61</v>
       </c>
@@ -21794,7 +21795,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B646" t="s">
         <v>84</v>
       </c>
@@ -21818,7 +21819,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B647" t="s">
         <v>60</v>
       </c>
@@ -21842,7 +21843,7 @@
         <v>42415</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B648" t="s">
         <v>199</v>
       </c>
@@ -21869,7 +21870,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B649" t="s">
         <v>193</v>
       </c>
@@ -21893,7 +21894,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B650" t="s">
         <v>902</v>
       </c>
@@ -21917,7 +21918,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B651" t="s">
         <v>903</v>
       </c>
@@ -21941,7 +21942,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B652" t="s">
         <v>904</v>
       </c>
@@ -21968,7 +21969,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>506</v>
       </c>
@@ -21995,7 +21996,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B654" t="s">
         <v>151</v>
       </c>
@@ -22019,7 +22020,7 @@
         <v>42604</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B655" t="s">
         <v>141</v>
       </c>
@@ -22043,7 +22044,7 @@
         <v>42468</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B656" t="s">
         <v>906</v>
       </c>
@@ -22067,7 +22068,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B657" t="s">
         <v>142</v>
       </c>
@@ -22091,7 +22092,7 @@
         <v>41899</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B658" t="s">
         <v>304</v>
       </c>
@@ -22115,7 +22116,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>460</v>
       </c>
@@ -22142,7 +22143,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B660" t="s">
         <v>59</v>
       </c>
@@ -22166,7 +22167,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B661" t="s">
         <v>907</v>
       </c>
@@ -22190,7 +22191,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B662" t="s">
         <v>320</v>
       </c>
@@ -22214,7 +22215,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>462</v>
       </c>
@@ -22241,7 +22242,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B664" t="s">
         <v>739</v>
       </c>
@@ -22268,7 +22269,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>593</v>
       </c>
@@ -22295,7 +22296,7 @@
         <v>42317</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B666" t="s">
         <v>142</v>
       </c>
@@ -22319,7 +22320,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B667" t="s">
         <v>58</v>
       </c>
@@ -22343,7 +22344,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B668" t="s">
         <v>695</v>
       </c>
@@ -22367,7 +22368,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B669" t="s">
         <v>24</v>
       </c>
@@ -22391,7 +22392,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B670" t="s">
         <v>143</v>
       </c>
@@ -22415,7 +22416,7 @@
         <v>42053</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>592</v>
       </c>
@@ -22442,7 +22443,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B672" t="s">
         <v>529</v>
       </c>
@@ -22466,7 +22467,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B673" t="s">
         <v>194</v>
       </c>
@@ -22490,7 +22491,7 @@
         <v>42900</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B674" t="s">
         <v>44</v>
       </c>
@@ -22514,7 +22515,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>507</v>
       </c>
@@ -22541,7 +22542,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B676" t="s">
         <v>790</v>
       </c>
@@ -22565,7 +22566,7 @@
         <v>42053</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B677" t="s">
         <v>914</v>
       </c>
@@ -22589,7 +22590,7 @@
         <v>42781</v>
       </c>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B678" t="s">
         <v>375</v>
       </c>
@@ -22613,7 +22614,7 @@
         <v>42781</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B679" t="s">
         <v>24</v>
       </c>
@@ -22637,7 +22638,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B680" t="s">
         <v>91</v>
       </c>
@@ -22661,7 +22662,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B681" t="s">
         <v>739</v>
       </c>
@@ -22685,7 +22686,7 @@
         <v>42975</v>
       </c>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B682" t="s">
         <v>56</v>
       </c>
@@ -22709,7 +22710,7 @@
         <v>42975</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>594</v>
       </c>
@@ -22733,7 +22734,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>513</v>
       </c>
@@ -22760,7 +22761,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B685" t="s">
         <v>143</v>
       </c>
@@ -22784,7 +22785,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>687</v>
       </c>
@@ -22811,7 +22812,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B687" t="s">
         <v>193</v>
       </c>
@@ -22835,7 +22836,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>609</v>
       </c>
@@ -22862,7 +22863,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>537</v>
       </c>
@@ -22889,7 +22890,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>697</v>
       </c>
@@ -22916,7 +22917,7 @@
         <v>42498</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B691" t="s">
         <v>199</v>
       </c>
@@ -22940,7 +22941,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B692" t="s">
         <v>622</v>
       </c>
@@ -22964,7 +22965,7 @@
         <v>42442</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B693" t="s">
         <v>218</v>
       </c>
@@ -22988,7 +22989,7 @@
         <v>42510</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B694" t="s">
         <v>42</v>
       </c>
@@ -23012,7 +23013,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>625</v>
       </c>
@@ -23039,7 +23040,7 @@
         <v>42415</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>512</v>
       </c>
@@ -23066,7 +23067,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>610</v>
       </c>
@@ -23093,7 +23094,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B698" t="s">
         <v>197</v>
       </c>
@@ -23117,7 +23118,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B699" t="s">
         <v>227</v>
       </c>
@@ -23141,7 +23142,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B700" t="s">
         <v>970</v>
       </c>
@@ -23165,7 +23166,7 @@
         <v>43013</v>
       </c>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B701" t="s">
         <v>951</v>
       </c>
@@ -23189,7 +23190,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B702" t="s">
         <v>533</v>
       </c>
@@ -23213,7 +23214,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B703" t="s">
         <v>533</v>
       </c>
@@ -23237,7 +23238,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B704" t="s">
         <v>947</v>
       </c>
@@ -23261,7 +23262,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>511</v>
       </c>
@@ -23288,7 +23289,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B706" t="s">
         <v>200</v>
       </c>
@@ -23312,7 +23313,7 @@
         <v>42673</v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B707" t="s">
         <v>143</v>
       </c>
@@ -23336,7 +23337,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B708" t="s">
         <v>199</v>
       </c>
@@ -23360,7 +23361,7 @@
         <v>42819</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B709" t="s">
         <v>157</v>
       </c>
@@ -23384,7 +23385,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B710" t="s">
         <v>622</v>
       </c>
@@ -23408,7 +23409,7 @@
         <v>42442</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>650</v>
       </c>
@@ -23435,7 +23436,7 @@
         <v>42796</v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B712" t="s">
         <v>966</v>
       </c>
@@ -23459,7 +23460,7 @@
         <v>42828</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B713" t="s">
         <v>968</v>
       </c>
@@ -23483,7 +23484,7 @@
         <v>42846</v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>604</v>
       </c>
@@ -23510,7 +23511,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B715" t="s">
         <v>950</v>
       </c>
@@ -23534,7 +23535,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>510</v>
       </c>
@@ -23561,7 +23562,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>538</v>
       </c>
@@ -23588,7 +23589,7 @@
         <v>42442</v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B718" t="s">
         <v>946</v>
       </c>
@@ -23612,7 +23613,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>694</v>
       </c>
@@ -23639,7 +23640,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>712</v>
       </c>
@@ -23666,7 +23667,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>718</v>
       </c>
@@ -23693,7 +23694,7 @@
         <v>42801</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B722" t="s">
         <v>131</v>
       </c>
@@ -23841,6 +23842,9 @@
       </c>
     </row>
     <row r="728" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>780</v>
+      </c>
       <c r="B728" t="s">
         <v>1006</v>
       </c>
@@ -23858,7 +23862,7 @@
       </c>
       <c r="K728">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="L728" s="1">
         <v>42370</v>
@@ -24818,7 +24822,7 @@
         <v>43010</v>
       </c>
     </row>
-    <row r="766" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>455</v>
       </c>
@@ -24845,7 +24849,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="767" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B767" t="s">
         <v>692</v>
       </c>
@@ -24869,7 +24873,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="768" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B768" t="s">
         <v>533</v>
       </c>
@@ -24893,7 +24897,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="769" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>126</v>
       </c>
@@ -24920,7 +24924,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="770" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B770" t="s">
         <v>162</v>
       </c>
@@ -24944,7 +24948,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="771" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B771" t="s">
         <v>378</v>
       </c>
@@ -24968,7 +24972,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="772" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B772" t="s">
         <v>201</v>
       </c>
@@ -24992,7 +24996,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="773" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>244</v>
       </c>
@@ -25019,7 +25023,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="774" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B774" t="s">
         <v>199</v>
       </c>
@@ -25043,7 +25047,7 @@
         <v>42490</v>
       </c>
     </row>
-    <row r="775" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>127</v>
       </c>
@@ -25070,7 +25074,7 @@
         <v>40987</v>
       </c>
     </row>
-    <row r="776" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>488</v>
       </c>
@@ -25097,7 +25101,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="777" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>47</v>
       </c>
@@ -25124,7 +25128,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="778" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>48</v>
       </c>
@@ -25151,7 +25155,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="779" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B779" t="s">
         <v>143</v>
       </c>
@@ -25175,7 +25179,7 @@
         <v>41232</v>
       </c>
     </row>
-    <row r="780" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B780" t="s">
         <v>1082</v>
       </c>
@@ -25199,7 +25203,7 @@
         <v>42285</v>
       </c>
     </row>
-    <row r="781" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B781" t="s">
         <v>199</v>
       </c>
@@ -25223,7 +25227,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="782" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>571</v>
       </c>
@@ -25250,7 +25254,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="783" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>681</v>
       </c>
@@ -25277,7 +25281,7 @@
         <v>41794</v>
       </c>
     </row>
-    <row r="784" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>128</v>
       </c>
@@ -25304,7 +25308,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="785" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>66</v>
       </c>
@@ -25331,7 +25335,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="786" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B786" t="s">
         <v>1094</v>
       </c>
@@ -25355,7 +25359,7 @@
         <v>42424</v>
       </c>
     </row>
-    <row r="787" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B787" t="s">
         <v>1084</v>
       </c>
@@ -25379,7 +25383,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="788" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B788" t="s">
         <v>1085</v>
       </c>
@@ -25403,7 +25407,7 @@
         <v>42270</v>
       </c>
     </row>
-    <row r="789" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B789" t="s">
         <v>1086</v>
       </c>
@@ -25427,7 +25431,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="790" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>103</v>
       </c>
@@ -25454,7 +25458,7 @@
         <v>40971</v>
       </c>
     </row>
-    <row r="791" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>49</v>
       </c>
@@ -25481,7 +25485,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="792" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B792" t="s">
         <v>1087</v>
       </c>
@@ -25505,7 +25509,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="793" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B793" t="s">
         <v>533</v>
       </c>
@@ -25529,7 +25533,7 @@
         <v>41186</v>
       </c>
     </row>
-    <row r="794" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B794" t="s">
         <v>375</v>
       </c>
@@ -25553,7 +25557,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="795" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>423</v>
       </c>
@@ -25580,7 +25584,7 @@
         <v>41171</v>
       </c>
     </row>
-    <row r="796" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B796" t="s">
         <v>1088</v>
       </c>
@@ -25604,7 +25608,7 @@
         <v>41724</v>
       </c>
     </row>
-    <row r="797" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>50</v>
       </c>
@@ -25631,7 +25635,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="798" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B798" t="s">
         <v>1098</v>
       </c>
@@ -25655,7 +25659,7 @@
         <v>42579</v>
       </c>
     </row>
-    <row r="799" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B799" t="s">
         <v>746</v>
       </c>
@@ -25679,7 +25683,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="800" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B800" t="s">
         <v>44</v>
       </c>
@@ -25703,7 +25707,7 @@
         <v>42120</v>
       </c>
     </row>
-    <row r="801" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B801" t="s">
         <v>89</v>
       </c>
@@ -25727,7 +25731,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="802" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B802" t="s">
         <v>143</v>
       </c>
@@ -25751,7 +25755,7 @@
         <v>42983</v>
       </c>
     </row>
-    <row r="803" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B803" t="s">
         <v>194</v>
       </c>
@@ -25775,7 +25779,7 @@
         <v>42270</v>
       </c>
     </row>
-    <row r="804" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B804" t="s">
         <v>200</v>
       </c>
@@ -25799,7 +25803,7 @@
         <v>42406</v>
       </c>
     </row>
-    <row r="805" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>688</v>
       </c>
@@ -25826,7 +25830,7 @@
         <v>41876</v>
       </c>
     </row>
-    <row r="806" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B806" t="s">
         <v>156</v>
       </c>
@@ -25850,7 +25854,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="807" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B807" t="s">
         <v>1090</v>
       </c>
@@ -25874,7 +25878,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="808" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B808" t="s">
         <v>1091</v>
       </c>
@@ -25898,7 +25902,7 @@
         <v>40977</v>
       </c>
     </row>
-    <row r="809" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>390</v>
       </c>
@@ -25925,7 +25929,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="810" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>690</v>
       </c>
@@ -25952,7 +25956,7 @@
         <v>41870</v>
       </c>
     </row>
-    <row r="811" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B811" t="s">
         <v>155</v>
       </c>
@@ -25976,7 +25980,7 @@
         <v>41680</v>
       </c>
     </row>
-    <row r="812" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B812" t="s">
         <v>1092</v>
       </c>
@@ -26000,7 +26004,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="813" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B813" t="s">
         <v>44</v>
       </c>
@@ -26024,7 +26028,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="814" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>411</v>
       </c>
@@ -26051,7 +26055,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="815" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B815" t="s">
         <v>305</v>
       </c>
@@ -26075,7 +26079,7 @@
         <v>41186</v>
       </c>
     </row>
-    <row r="816" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B816" t="s">
         <v>142</v>
       </c>
@@ -26099,7 +26103,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="817" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B817" t="s">
         <v>690</v>
       </c>
@@ -26123,7 +26127,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="818" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B818" t="s">
         <v>44</v>
       </c>
@@ -26147,7 +26151,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="819" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>403</v>
       </c>
@@ -26174,7 +26178,7 @@
         <v>40987</v>
       </c>
     </row>
-    <row r="820" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>223</v>
       </c>
@@ -26201,7 +26205,7 @@
         <v>41195</v>
       </c>
     </row>
-    <row r="821" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>457</v>
       </c>
@@ -26228,7 +26232,7 @@
         <v>41726</v>
       </c>
     </row>
-    <row r="822" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B822" t="s">
         <v>1107</v>
       </c>
@@ -26252,7 +26256,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="823" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B823" t="s">
         <v>43</v>
       </c>
@@ -26276,7 +26280,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="824" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B824" t="s">
         <v>145</v>
       </c>
@@ -26300,7 +26304,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="825" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B825" t="s">
         <v>225</v>
       </c>
@@ -26324,7 +26328,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="826" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B826" t="s">
         <v>423</v>
       </c>
@@ -26348,7 +26352,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="827" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B827" t="s">
         <v>1124</v>
       </c>
@@ -26372,7 +26376,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="828" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B828" t="s">
         <v>1125</v>
       </c>
@@ -26396,7 +26400,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="829" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B829" t="s">
         <v>1126</v>
       </c>
@@ -26420,7 +26424,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="830" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B830" t="s">
         <v>437</v>
       </c>
@@ -26444,7 +26448,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="831" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B831" t="s">
         <v>1127</v>
       </c>
@@ -26468,7 +26472,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="832" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B832" t="s">
         <v>143</v>
       </c>
@@ -26492,7 +26496,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="833" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B833" t="s">
         <v>805</v>
       </c>
@@ -26516,7 +26520,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="834" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B834" t="s">
         <v>141</v>
       </c>
@@ -26540,7 +26544,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="835" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B835" t="s">
         <v>745</v>
       </c>
@@ -26564,7 +26568,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="836" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B836" t="s">
         <v>1120</v>
       </c>
@@ -26588,7 +26592,7 @@
         <v>42741</v>
       </c>
     </row>
-    <row r="837" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B837" t="s">
         <v>1109</v>
       </c>
@@ -26612,7 +26616,7 @@
         <v>42741</v>
       </c>
     </row>
-    <row r="838" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B838" t="s">
         <v>1109</v>
       </c>
@@ -26636,7 +26640,7 @@
         <v>42741</v>
       </c>
     </row>
-    <row r="839" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B839" t="s">
         <v>218</v>
       </c>
@@ -26660,7 +26664,7 @@
         <v>42766</v>
       </c>
     </row>
-    <row r="840" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B840" t="s">
         <v>666</v>
       </c>
@@ -26684,7 +26688,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="841" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B841" t="s">
         <v>1110</v>
       </c>
@@ -26708,7 +26712,7 @@
         <v>42809</v>
       </c>
     </row>
-    <row r="842" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B842" t="s">
         <v>151</v>
       </c>
@@ -26732,7 +26736,7 @@
         <v>42863</v>
       </c>
     </row>
-    <row r="843" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B843" t="s">
         <v>1111</v>
       </c>
@@ -26756,7 +26760,7 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="844" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B844" t="s">
         <v>306</v>
       </c>
@@ -26780,7 +26784,7 @@
         <v>42411</v>
       </c>
     </row>
-    <row r="845" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B845" t="s">
         <v>1162</v>
       </c>
@@ -26804,7 +26808,7 @@
         <v>42606</v>
       </c>
     </row>
-    <row r="846" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B846" t="s">
         <v>1148</v>
       </c>
@@ -26828,7 +26832,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="847" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B847" t="s">
         <v>1149</v>
       </c>
@@ -26852,7 +26856,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="848" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B848" t="s">
         <v>1150</v>
       </c>
@@ -26876,7 +26880,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="849" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>530</v>
       </c>
@@ -26903,7 +26907,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="850" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B850" t="s">
         <v>299</v>
       </c>
@@ -26927,7 +26931,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="851" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="5"/>
       <c r="B851" s="5" t="s">
         <v>162</v>
@@ -26960,7 +26964,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="852" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B852" t="s">
         <v>1167</v>
       </c>
@@ -26984,7 +26988,7 @@
         <v>42678</v>
       </c>
     </row>
-    <row r="853" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B853" t="s">
         <v>423</v>
       </c>
@@ -27008,7 +27012,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="854" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B854" t="s">
         <v>44</v>
       </c>
@@ -27032,7 +27036,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="855" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B855" t="s">
         <v>61</v>
       </c>
@@ -27056,7 +27060,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="856" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>559</v>
       </c>
@@ -27083,7 +27087,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="857" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B857" t="s">
         <v>1151</v>
       </c>
@@ -27107,7 +27111,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="858" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B858" t="s">
         <v>1152</v>
       </c>
@@ -27131,7 +27135,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="859" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B859" t="s">
         <v>1156</v>
       </c>
@@ -27155,7 +27159,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="860" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B860" t="s">
         <v>1159</v>
       </c>
@@ -27179,7 +27183,7 @@
         <v>42474</v>
       </c>
     </row>
-    <row r="861" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B861" t="s">
         <v>1165</v>
       </c>
@@ -27203,7 +27207,7 @@
         <v>42664</v>
       </c>
     </row>
-    <row r="862" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>529</v>
       </c>
@@ -27230,7 +27234,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="863" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B863" t="s">
         <v>695</v>
       </c>
@@ -27254,7 +27258,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="864" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B864" t="s">
         <v>1154</v>
       </c>
@@ -27278,7 +27282,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="865" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B865" t="s">
         <v>71</v>
       </c>
@@ -27302,7 +27306,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="866" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B866" t="s">
         <v>433</v>
       </c>
@@ -27326,7 +27330,7 @@
         <v>42590</v>
       </c>
     </row>
-    <row r="867" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B867" t="s">
         <v>1012</v>
       </c>
@@ -27350,7 +27354,7 @@
         <v>42604</v>
       </c>
     </row>
-    <row r="868" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B868" t="s">
         <v>1164</v>
       </c>
@@ -27374,7 +27378,7 @@
         <v>42626</v>
       </c>
     </row>
-    <row r="869" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>596</v>
       </c>
@@ -27401,7 +27405,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="870" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B870" t="s">
         <v>227</v>
       </c>
@@ -27425,7 +27429,7 @@
         <v>42462</v>
       </c>
     </row>
-    <row r="871" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B871" t="s">
         <v>695</v>
       </c>
@@ -27449,7 +27453,7 @@
         <v>42462</v>
       </c>
     </row>
-    <row r="872" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B872" t="s">
         <v>197</v>
       </c>
@@ -27473,7 +27477,7 @@
         <v>42689</v>
       </c>
     </row>
-    <row r="873" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>484</v>
       </c>
@@ -27500,7 +27504,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="874" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>531</v>
       </c>
@@ -27527,7 +27531,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="875" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B875" t="s">
         <v>196</v>
       </c>
@@ -27551,7 +27555,7 @@
         <v>42240</v>
       </c>
     </row>
-    <row r="876" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>288</v>
       </c>
@@ -27584,7 +27588,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="877" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>400</v>
       </c>
@@ -27611,7 +27615,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="878" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B878" t="s">
         <v>1210</v>
       </c>
@@ -27635,7 +27639,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="879" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>597</v>
       </c>
@@ -27671,7 +27675,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="880" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B880" t="s">
         <v>145</v>
       </c>
@@ -27698,7 +27702,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="881" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B881" t="s">
         <v>128</v>
       </c>
@@ -27722,7 +27726,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="882" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B882" t="s">
         <v>313</v>
       </c>
@@ -27749,7 +27753,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="883" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B883" t="s">
         <v>1223</v>
       </c>
@@ -27773,7 +27777,7 @@
         <v>42995</v>
       </c>
     </row>
-    <row r="884" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B884" t="s">
         <v>193</v>
       </c>
@@ -27797,7 +27801,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="885" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B885" t="s">
         <v>80</v>
       </c>
@@ -27821,7 +27825,7 @@
         <v>42879</v>
       </c>
     </row>
-    <row r="886" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B886" t="s">
         <v>1065</v>
       </c>
@@ -27845,7 +27849,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="887" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B887" t="s">
         <v>1212</v>
       </c>
@@ -27872,7 +27876,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="888" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B888" t="s">
         <v>193</v>
       </c>
@@ -27899,7 +27903,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="889" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B889" t="s">
         <v>144</v>
       </c>
@@ -27923,7 +27927,7 @@
         <v>42052</v>
       </c>
     </row>
-    <row r="890" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>224</v>
       </c>
@@ -27956,7 +27960,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="891" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B891" t="s">
         <v>40</v>
       </c>
@@ -27980,7 +27984,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="892" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B892" t="s">
         <v>199</v>
       </c>
@@ -28004,7 +28008,7 @@
         <v>42447</v>
       </c>
     </row>
-    <row r="893" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B893" t="s">
         <v>24</v>
       </c>
@@ -28031,7 +28035,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="894" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B894" t="s">
         <v>199</v>
       </c>
@@ -28055,7 +28059,7 @@
         <v>42419</v>
       </c>
     </row>
-    <row r="895" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>138</v>
       </c>
@@ -28082,7 +28086,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="896" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>29</v>
       </c>
@@ -28109,7 +28113,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="897" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>1</v>
       </c>
@@ -28136,7 +28140,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="898" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>92</v>
       </c>
@@ -28163,7 +28167,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="899" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B899" t="s">
         <v>1220</v>
       </c>
@@ -28187,7 +28191,7 @@
         <v>42447</v>
       </c>
     </row>
-    <row r="900" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>399</v>
       </c>
@@ -28220,7 +28224,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="901" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B901" t="s">
         <v>60</v>
       </c>
@@ -28244,7 +28248,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="902" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>286</v>
       </c>
@@ -28271,7 +28275,7 @@
         <v>41317</v>
       </c>
     </row>
-    <row r="903" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>82</v>
       </c>
@@ -28298,7 +28302,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="904" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>2</v>
       </c>
@@ -28331,7 +28335,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="905" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>225</v>
       </c>
@@ -28364,7 +28368,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="906" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B906" t="s">
         <v>54</v>
       </c>
@@ -28388,7 +28392,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="907" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>646</v>
       </c>
@@ -28415,7 +28419,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="908" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B908" t="s">
         <v>143</v>
       </c>
@@ -28439,7 +28443,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="909" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>355</v>
       </c>
@@ -28466,7 +28470,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="910" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B910" t="s">
         <v>227</v>
       </c>
@@ -28490,7 +28494,7 @@
         <v>42629</v>
       </c>
     </row>
-    <row r="911" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B911" t="s">
         <v>231</v>
       </c>
@@ -28514,7 +28518,7 @@
         <v>42606</v>
       </c>
     </row>
-    <row r="912" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B912" t="s">
         <v>1221</v>
       </c>
@@ -28538,7 +28542,7 @@
         <v>42975</v>
       </c>
     </row>
-    <row r="913" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B913" t="s">
         <v>533</v>
       </c>
@@ -28562,7 +28566,7 @@
         <v>41712</v>
       </c>
     </row>
-    <row r="914" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B914" t="s">
         <v>60</v>
       </c>
@@ -28586,7 +28590,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="915" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B915" t="s">
         <v>151</v>
       </c>
@@ -28610,7 +28614,7 @@
         <v>42997</v>
       </c>
     </row>
-    <row r="916" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B916" t="s">
         <v>156</v>
       </c>
@@ -28637,7 +28641,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="917" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B917" t="s">
         <v>194</v>
       </c>
@@ -28661,7 +28665,7 @@
         <v>42879</v>
       </c>
     </row>
-    <row r="918" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B918" t="s">
         <v>197</v>
       </c>
@@ -28688,7 +28692,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="919" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>598</v>
       </c>
@@ -28718,7 +28722,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="920" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>148</v>
       </c>
@@ -28748,7 +28752,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="921" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>732</v>
       </c>
@@ -28775,7 +28779,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="922" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B922" t="s">
         <v>59</v>
       </c>
@@ -28799,7 +28803,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="923" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B923" t="s">
         <v>65</v>
       </c>
@@ -28823,7 +28827,7 @@
         <v>42879</v>
       </c>
     </row>
-    <row r="924" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>287</v>
       </c>
@@ -28850,7 +28854,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="925" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>588</v>
       </c>
@@ -28877,7 +28881,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="926" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>61</v>
       </c>
@@ -28905,7 +28909,7 @@
         <v>41274</v>
       </c>
     </row>
-    <row r="927" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>671</v>
       </c>
@@ -28932,7 +28936,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="928" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" s="5">
         <v>439</v>
       </c>
@@ -28963,7 +28967,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="929" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" s="5">
         <v>102</v>
       </c>
@@ -28994,7 +28998,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="930" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" s="5">
         <v>680</v>
       </c>
@@ -29029,7 +29033,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="931" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" s="5">
         <v>346</v>
       </c>
@@ -29064,7 +29068,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="932" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" s="5">
         <v>287</v>
       </c>
@@ -29099,7 +29103,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="933" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B933" t="s">
         <v>1240</v>
       </c>
@@ -29123,7 +29127,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="934" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" s="7">
         <v>656</v>
       </c>
@@ -29150,7 +29154,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="935" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B935" t="s">
         <v>91</v>
       </c>
@@ -29174,7 +29178,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="936" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B936" t="s">
         <v>438</v>
       </c>
@@ -29198,7 +29202,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="937" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>730</v>
       </c>
@@ -29225,7 +29229,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="938" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B938" t="s">
         <v>61</v>
       </c>
@@ -29249,7 +29253,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="939" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>655</v>
       </c>
@@ -29276,7 +29280,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="940" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>682</v>
       </c>
@@ -29303,7 +29307,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="941" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B941" t="s">
         <v>1248</v>
       </c>
@@ -29327,7 +29331,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="942" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>658</v>
       </c>
@@ -29354,7 +29358,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="943" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>683</v>
       </c>
@@ -29381,7 +29385,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="944" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>724</v>
       </c>
@@ -29408,7 +29412,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="945" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B945" t="s">
         <v>608</v>
       </c>
@@ -29432,7 +29436,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="946" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>657</v>
       </c>
@@ -29459,7 +29463,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="947" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B947" t="s">
         <v>56</v>
       </c>
@@ -29483,7 +29487,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="948" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B948" t="s">
         <v>162</v>
       </c>
@@ -29507,7 +29511,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="949" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>725</v>
       </c>
@@ -29534,7 +29538,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="950" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>678</v>
       </c>
@@ -29561,7 +29565,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="951" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B951" t="s">
         <v>142</v>
       </c>
@@ -29585,7 +29589,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="952" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B952" t="s">
         <v>197</v>
       </c>
@@ -29609,7 +29613,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="953" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B953" t="s">
         <v>1260</v>
       </c>
@@ -29633,7 +29637,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="954" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>769</v>
       </c>
@@ -29660,7 +29664,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="955" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B955" t="s">
         <v>1243</v>
       </c>
@@ -29684,7 +29688,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="956" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>704</v>
       </c>
@@ -29711,7 +29715,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="957" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>768</v>
       </c>
@@ -29738,7 +29742,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="958" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>764</v>
       </c>
@@ -29765,7 +29769,7 @@
         <v>42946</v>
       </c>
     </row>
-    <row r="959" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B959" t="s">
         <v>738</v>
       </c>
@@ -29789,7 +29793,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="960" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B960" t="s">
         <v>1262</v>
       </c>
@@ -29813,7 +29817,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="961" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B961" t="s">
         <v>193</v>
       </c>
@@ -29837,7 +29841,7 @@
         <v>42741</v>
       </c>
     </row>
-    <row r="962" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>740</v>
       </c>
@@ -29864,7 +29868,7 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="963" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B963" t="s">
         <v>193</v>
       </c>
@@ -29888,7 +29892,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="964" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B964" t="s">
         <v>167</v>
       </c>
@@ -29912,7 +29916,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="965" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>723</v>
       </c>
@@ -29939,7 +29943,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="966" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B966" t="s">
         <v>60</v>
       </c>
@@ -29963,7 +29967,7 @@
         <v>42843</v>
       </c>
     </row>
-    <row r="967" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" s="5"/>
       <c r="B967" s="5" t="s">
         <v>59</v>
@@ -29996,7 +30000,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="968" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>762</v>
       </c>
@@ -30023,7 +30027,7 @@
         <v>42859</v>
       </c>
     </row>
-    <row r="969" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B969" t="s">
         <v>1289</v>
       </c>
@@ -30047,7 +30051,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="970" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B970" t="s">
         <v>995</v>
       </c>
@@ -30071,7 +30075,7 @@
         <v>42984</v>
       </c>
     </row>
-    <row r="971" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971">
         <v>659</v>
       </c>
@@ -30098,7 +30102,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="972" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>660</v>
       </c>
@@ -30131,7 +30135,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="973" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973">
         <v>777</v>
       </c>
@@ -30158,7 +30162,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="974" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974">
         <v>738</v>
       </c>
@@ -30185,7 +30189,7 @@
         <v>42817</v>
       </c>
     </row>
-    <row r="975" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B975" t="s">
         <v>695</v>
       </c>
@@ -30209,7 +30213,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="976" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976">
         <v>727</v>
       </c>
@@ -30236,7 +30240,7 @@
         <v>42859</v>
       </c>
     </row>
-    <row r="977" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B977" t="s">
         <v>231</v>
       </c>
@@ -30260,7 +30264,7 @@
         <v>42843</v>
       </c>
     </row>
-    <row r="978" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978">
         <v>663</v>
       </c>
@@ -30287,7 +30291,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="979" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979">
         <v>729</v>
       </c>
@@ -30314,7 +30318,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="980" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980">
         <v>668</v>
       </c>
@@ -30341,7 +30345,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="981" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B981" t="s">
         <v>91</v>
       </c>
@@ -30365,7 +30369,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="982" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>661</v>
       </c>
@@ -30392,7 +30396,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="983" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>685</v>
       </c>
@@ -30422,7 +30426,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="984" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>695</v>
       </c>
@@ -30449,7 +30453,7 @@
         <v>42849</v>
       </c>
     </row>
-    <row r="985" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B985" t="s">
         <v>1283</v>
       </c>
@@ -30473,7 +30477,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="986" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B986" t="s">
         <v>65</v>
       </c>
@@ -30497,7 +30501,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="987" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B987" t="s">
         <v>54</v>
       </c>
@@ -30521,7 +30525,7 @@
         <v>42984</v>
       </c>
     </row>
-    <row r="988" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B988" t="s">
         <v>91</v>
       </c>
@@ -30545,7 +30549,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="989" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B989" t="s">
         <v>1285</v>
       </c>
@@ -30569,7 +30573,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="990" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B990" t="s">
         <v>1287</v>
       </c>
@@ -30593,7 +30597,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="991" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>739</v>
       </c>
@@ -30620,7 +30624,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="992" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A992">
         <v>662</v>
       </c>
@@ -30653,7 +30657,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="993" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993" s="5"/>
       <c r="B993" s="5" t="s">
         <v>203</v>
@@ -30686,7 +30690,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="994" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B994" t="s">
         <v>739</v>
       </c>
@@ -30710,7 +30714,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="995" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B995" t="s">
         <v>304</v>
       </c>
@@ -30734,7 +30738,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="996" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>608</v>
       </c>
@@ -30761,7 +30765,7 @@
         <v>42411</v>
       </c>
     </row>
-    <row r="997" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B997" t="s">
         <v>460</v>
       </c>
@@ -30785,7 +30789,7 @@
         <v>41704</v>
       </c>
     </row>
-    <row r="998" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>53</v>
       </c>
@@ -30818,7 +30822,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="999" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B999" t="s">
         <v>61</v>
       </c>
@@ -30842,7 +30846,7 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="1000" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>113</v>
       </c>
@@ -30869,7 +30873,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1001" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1001" t="s">
         <v>306</v>
       </c>
@@ -30893,7 +30897,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="1002" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1002" t="s">
         <v>1349</v>
       </c>
@@ -30917,7 +30921,7 @@
         <v>42411</v>
       </c>
     </row>
-    <row r="1003" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1003">
         <v>689</v>
       </c>
@@ -30944,7 +30948,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="1004" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1004" t="s">
         <v>313</v>
       </c>
@@ -30968,7 +30972,7 @@
         <v>42953</v>
       </c>
     </row>
-    <row r="1005" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1005">
         <v>205</v>
       </c>
@@ -30995,7 +30999,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1006" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1006" t="s">
         <v>1342</v>
       </c>
@@ -31019,7 +31023,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1007" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1007">
         <v>509</v>
       </c>
@@ -31046,7 +31050,7 @@
         <v>42143</v>
       </c>
     </row>
-    <row r="1008" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1008" t="s">
         <v>1352</v>
       </c>
@@ -31070,7 +31074,7 @@
         <v>42872</v>
       </c>
     </row>
-    <row r="1009" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1009" t="s">
         <v>74</v>
       </c>
@@ -31094,7 +31098,7 @@
         <v>41739</v>
       </c>
     </row>
-    <row r="1010" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1010">
         <v>183</v>
       </c>
@@ -31127,7 +31131,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1011" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1011" t="s">
         <v>692</v>
       </c>
@@ -31151,7 +31155,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1012" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1012" t="s">
         <v>167</v>
       </c>
@@ -31175,7 +31179,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="1013" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1013" t="s">
         <v>91</v>
       </c>
@@ -31199,7 +31203,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1014" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1014">
         <v>218</v>
       </c>
@@ -31226,7 +31230,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1015" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1015" t="s">
         <v>196</v>
       </c>
@@ -31250,7 +31254,7 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="1016" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1016">
         <v>605</v>
       </c>
@@ -31277,7 +31281,7 @@
         <v>41704</v>
       </c>
     </row>
-    <row r="1017" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1017">
         <v>298</v>
       </c>
@@ -31304,7 +31308,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1018" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1018">
         <v>450</v>
       </c>
@@ -31331,7 +31335,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1019" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1019" t="s">
         <v>54</v>
       </c>
@@ -31361,7 +31365,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1020" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1020">
         <v>142</v>
       </c>
@@ -31388,7 +31392,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1021" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1021" t="s">
         <v>60</v>
       </c>
@@ -31412,7 +31416,7 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="1022" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1022">
         <v>432</v>
       </c>
@@ -31439,7 +31443,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1023" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1023">
         <v>154</v>
       </c>
@@ -31466,7 +31470,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1024" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1024" t="s">
         <v>1350</v>
       </c>
@@ -31490,7 +31494,7 @@
         <v>42411</v>
       </c>
     </row>
-    <row r="1025" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1025">
         <v>317</v>
       </c>
@@ -31523,7 +31527,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1026" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1026" t="s">
         <v>150</v>
       </c>
@@ -31547,7 +31551,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="1027" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1027" t="s">
         <v>1348</v>
       </c>
@@ -31571,7 +31575,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="1028" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1028" t="s">
         <v>227</v>
       </c>
@@ -31595,7 +31599,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1029" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1029" t="s">
         <v>914</v>
       </c>
@@ -31619,7 +31623,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1030" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1030" t="s">
         <v>741</v>
       </c>
@@ -31643,7 +31647,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="1031" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1031" t="s">
         <v>1344</v>
       </c>
@@ -31667,7 +31671,7 @@
         <v>41879</v>
       </c>
     </row>
-    <row r="1032" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1032" t="s">
         <v>80</v>
       </c>
@@ -31691,7 +31695,7 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="1033" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1033">
         <v>734</v>
       </c>
@@ -31718,7 +31722,7 @@
         <v>42060</v>
       </c>
     </row>
-    <row r="1034" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1034" t="s">
         <v>231</v>
       </c>
@@ -31742,7 +31746,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="1035" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1035">
         <v>433</v>
       </c>
@@ -31769,7 +31773,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1036" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1036" t="s">
         <v>199</v>
       </c>
@@ -31793,7 +31797,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="1037" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1037" t="s">
         <v>194</v>
       </c>
@@ -31817,7 +31821,7 @@
         <v>42247</v>
       </c>
     </row>
-    <row r="1038" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1038">
         <v>69</v>
       </c>
@@ -31844,7 +31848,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1039" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1039">
         <v>34</v>
       </c>
@@ -31871,7 +31875,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1040" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1040" t="s">
         <v>304</v>
       </c>
@@ -31895,7 +31899,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="1041" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1041">
         <v>508</v>
       </c>
@@ -31922,7 +31926,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="1042" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1042" t="s">
         <v>533</v>
       </c>
@@ -31946,7 +31950,7 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="1043" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1043" t="s">
         <v>953</v>
       </c>
@@ -31976,7 +31980,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1044" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1044" t="s">
         <v>1351</v>
       </c>
@@ -32000,7 +32004,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="1045" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1045" t="s">
         <v>1065</v>
       </c>
@@ -32024,7 +32028,7 @@
         <v>42060</v>
       </c>
     </row>
-    <row r="1046" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1046">
         <v>431</v>
       </c>
@@ -32051,7 +32055,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1047" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1047">
         <v>83</v>
       </c>
@@ -32084,7 +32088,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1048" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1048">
         <v>136</v>
       </c>
@@ -32111,7 +32115,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1049" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1049">
         <v>137</v>
       </c>
@@ -32138,7 +32142,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="1050" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1050" s="5">
         <v>222</v>
       </c>
@@ -32170,7 +32174,7 @@
         <v>41585</v>
       </c>
     </row>
-    <row r="1051" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1051" s="5">
         <v>54</v>
       </c>
@@ -32202,7 +32206,7 @@
       </c>
       <c r="M1051" s="6"/>
     </row>
-    <row r="1052" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1052" s="5">
         <v>299</v>
       </c>
@@ -32234,7 +32238,7 @@
       </c>
       <c r="M1052" s="6"/>
     </row>
-    <row r="1053" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1053" s="5">
         <v>68</v>
       </c>
@@ -32262,7 +32266,7 @@
         <v>41585</v>
       </c>
     </row>
-    <row r="1054" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1054" s="5">
         <v>84</v>
       </c>
@@ -32290,7 +32294,7 @@
       <c r="L1054" s="6"/>
       <c r="M1054" s="6"/>
     </row>
-    <row r="1055" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1055" s="5">
         <v>214</v>
       </c>
@@ -32318,7 +32322,7 @@
       <c r="L1055" s="6"/>
       <c r="M1055" s="6"/>
     </row>
-    <row r="1056" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1056" s="5">
         <v>275</v>
       </c>
@@ -32346,7 +32350,7 @@
       <c r="L1056" s="6"/>
       <c r="M1056" s="6"/>
     </row>
-    <row r="1057" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1057" s="5">
         <v>12</v>
       </c>
@@ -32374,7 +32378,7 @@
       <c r="L1057" s="6"/>
       <c r="M1057" s="6"/>
     </row>
-    <row r="1058" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1058" s="5">
         <v>35</v>
       </c>
@@ -32402,7 +32406,7 @@
       <c r="L1058" s="6"/>
       <c r="M1058" s="6"/>
     </row>
-    <row r="1059" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1059" s="5">
         <v>32</v>
       </c>
@@ -32430,7 +32434,7 @@
       <c r="L1059" s="6"/>
       <c r="M1059" s="6"/>
     </row>
-    <row r="1060" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1060" t="s">
         <v>423</v>
       </c>
@@ -32454,7 +32458,7 @@
         <v>42270</v>
       </c>
     </row>
-    <row r="1061" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1061" t="s">
         <v>692</v>
       </c>
@@ -32478,7 +32482,7 @@
         <v>42972</v>
       </c>
     </row>
-    <row r="1062" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1062" t="s">
         <v>299</v>
       </c>
@@ -32502,7 +32506,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="1063" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1063" t="s">
         <v>44</v>
       </c>
@@ -32526,7 +32530,7 @@
         <v>41889</v>
       </c>
     </row>
-    <row r="1064" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1064" t="s">
         <v>44</v>
       </c>
@@ -32550,7 +32554,7 @@
         <v>42963</v>
       </c>
     </row>
-    <row r="1065" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1065">
         <v>276</v>
       </c>
@@ -32580,7 +32584,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1066" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1066" t="s">
         <v>304</v>
       </c>
@@ -32604,7 +32608,7 @@
         <v>41726</v>
       </c>
     </row>
-    <row r="1067" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1067" t="s">
         <v>1389</v>
       </c>
@@ -32628,7 +32632,7 @@
         <v>41464</v>
       </c>
     </row>
-    <row r="1068" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1068">
         <v>158</v>
       </c>
@@ -32658,7 +32662,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1069" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1069" t="s">
         <v>741</v>
       </c>
@@ -32682,7 +32686,7 @@
         <v>42297</v>
       </c>
     </row>
-    <row r="1070" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1070" t="s">
         <v>59</v>
       </c>
@@ -32706,7 +32710,7 @@
         <v>41381</v>
       </c>
     </row>
-    <row r="1071" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1071">
         <v>152</v>
       </c>
@@ -32739,7 +32743,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1072" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1072">
         <v>243</v>
       </c>
@@ -32769,7 +32773,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1073" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1073">
         <v>151</v>
       </c>
@@ -32799,7 +32803,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1074" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1074">
         <v>67</v>
       </c>
@@ -32829,7 +32833,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1075" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1075">
         <v>162</v>
       </c>
@@ -32856,7 +32860,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1076" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1076" t="s">
         <v>1390</v>
       </c>
@@ -32883,7 +32887,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1077" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1077" t="s">
         <v>1391</v>
       </c>
@@ -32907,7 +32911,7 @@
         <v>41415</v>
       </c>
     </row>
-    <row r="1078" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1078">
         <v>175</v>
       </c>
@@ -32937,7 +32941,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1079" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1079">
         <v>173</v>
       </c>
@@ -32964,7 +32968,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1080" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1080" t="s">
         <v>410</v>
       </c>
@@ -32988,7 +32992,7 @@
         <v>42972</v>
       </c>
     </row>
-    <row r="1081" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1081" t="s">
         <v>1398</v>
       </c>
@@ -33012,7 +33016,7 @@
         <v>42501</v>
       </c>
     </row>
-    <row r="1082" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1082" t="s">
         <v>151</v>
       </c>
@@ -33039,7 +33043,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1083" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1083" t="s">
         <v>1392</v>
       </c>
@@ -33063,7 +33067,7 @@
         <v>41372</v>
       </c>
     </row>
-    <row r="1084" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1084" t="s">
         <v>24</v>
       </c>
@@ -33087,7 +33091,7 @@
         <v>41378</v>
       </c>
     </row>
-    <row r="1085" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1085" t="s">
         <v>400</v>
       </c>
@@ -33111,7 +33115,7 @@
         <v>42963</v>
       </c>
     </row>
-    <row r="1086" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1086" t="s">
         <v>1393</v>
       </c>
@@ -33135,7 +33139,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1087" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1087" t="s">
         <v>144</v>
       </c>
@@ -33159,7 +33163,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="1088" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1088" t="s">
         <v>1395</v>
       </c>
@@ -33183,7 +33187,7 @@
         <v>42963</v>
       </c>
     </row>
-    <row r="1089" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1089" t="s">
         <v>231</v>
       </c>
@@ -33207,7 +33211,7 @@
         <v>41939</v>
       </c>
     </row>
-    <row r="1090" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1090" t="s">
         <v>533</v>
       </c>
@@ -33231,7 +33235,7 @@
         <v>42423</v>
       </c>
     </row>
-    <row r="1091" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1091" t="s">
         <v>1400</v>
       </c>
@@ -33255,7 +33259,7 @@
         <v>42793</v>
       </c>
     </row>
-    <row r="1092" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1092">
         <v>131</v>
       </c>
@@ -33285,7 +33289,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1093" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1093">
         <v>150</v>
       </c>
@@ -33315,7 +33319,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1094" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1094" t="s">
         <v>306</v>
       </c>
@@ -33339,7 +33343,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1095" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1095">
         <v>190</v>
       </c>
@@ -33366,7 +33370,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="1096" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1096" t="s">
         <v>1394</v>
       </c>
@@ -33390,7 +33394,7 @@
         <v>41707</v>
       </c>
     </row>
-    <row r="1097" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1097" t="s">
         <v>543</v>
       </c>
@@ -33414,7 +33418,7 @@
         <v>42823</v>
       </c>
     </row>
-    <row r="1098" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1098" s="5">
         <v>401</v>
       </c>
@@ -33442,7 +33446,7 @@
       <c r="L1098" s="6"/>
       <c r="M1098" s="6"/>
     </row>
-    <row r="1099" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1099" s="5">
         <v>448</v>
       </c>
@@ -33474,7 +33478,7 @@
       </c>
       <c r="M1099" s="6"/>
     </row>
-    <row r="1100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1100" s="5">
         <v>174</v>
       </c>
@@ -33507,7 +33511,13 @@
       <c r="M1100" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1100" xr:uid="{C2989F7E-E7E1-4B40-85C5-661F80FBA87E}"/>
+  <autoFilter ref="A1:N1100" xr:uid="{C2989F7E-E7E1-4B40-85C5-661F80FBA87E}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="70"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A1060:M1096">
     <sortCondition ref="C1060:C1096"/>
   </sortState>
